--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="148">
   <si>
     <t xml:space="preserve">Experiment Info</t>
   </si>
@@ -127,63 +127,66 @@
     <t xml:space="preserve">Solvent 1 volume [uL]</t>
   </si>
   <si>
+    <t xml:space="preserve">Solute 1 name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute 1 Concentration [mM]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution volume [um]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spin Delay [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation speed 1 [rpm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation time 1 [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration 1 [rpm/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation speed 2 [rpm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation time 2 [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration 2 [rpm/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent volume [ml]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent dropping time [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent dropping speed [ul/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent dropping heigt [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annealing time [min]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annealing temperature [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annealing athmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solute 1 type</t>
   </si>
   <si>
-    <t xml:space="preserve">Solute 1 Concentration [mM]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution volume [um]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spin Delay [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation speed 1 [rpm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation time 1 [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration 1 [rpm/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation speed 2 [rpm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation time 2 [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration 2 [rpm/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent volume [ml]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent dropping time [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent dropping speed [ul/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent dropping heigt [mm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annealing time [min]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annealing temperature [°C]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annealing athmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solute 2 type</t>
   </si>
   <si>
@@ -310,10 +313,10 @@
     <t xml:space="preserve">Base pressure [bar]</t>
   </si>
   <si>
-    <t xml:space="preserve">Pressure start [bar]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure end [bar]</t>
+    <t xml:space="preserve">Pressure start [mbar]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure end [mbar]</t>
   </si>
   <si>
     <t xml:space="preserve">Source temperature start[°C]</t>
@@ -640,11 +643,11 @@
   </sheetPr>
   <dimension ref="A1:EJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CG2" activeCellId="0" sqref="CG2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DN2" activeCellId="0" sqref="DN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
@@ -1094,52 +1097,52 @@
         <v>34</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>50</v>
@@ -1163,64 +1166,64 @@
         <v>32</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CO2" s="2" t="s">
         <v>30</v>
@@ -1238,7 +1241,7 @@
         <v>34</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="CU2" s="2" t="s">
         <v>36</v>
@@ -1247,25 +1250,25 @@
         <v>37</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="DD2" s="2" t="s">
         <v>50</v>
@@ -1289,34 +1292,34 @@
         <v>32</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DU2" s="2" t="s">
         <v>53</v>
@@ -1331,37 +1334,37 @@
         <v>32</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DZ2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="EF2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="EA2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="EG2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="EH2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="EJ2" s="2" t="s">
         <v>53</v>
@@ -1369,10 +1372,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1385,22 +1388,22 @@
         <v>hzb_TestP_AA_1_c-1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>100</v>
@@ -1409,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>10</v>
@@ -1418,7 +1421,7 @@
         <v>100</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>20</v>
@@ -1427,22 +1430,22 @@
         <v>50</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA3" s="0" t="n">
         <v>2</v>
@@ -1472,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="0" t="n">
         <v>10</v>
@@ -1493,40 +1496,40 @@
         <v>100</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC3" s="0" t="n">
         <v>10</v>
@@ -1535,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="BE3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG3" s="0" t="n">
         <v>5</v>
@@ -1568,19 +1571,19 @@
         <v>14</v>
       </c>
       <c r="BP3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS3" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV3" s="0" t="n">
         <v>10</v>
@@ -1637,25 +1640,25 @@
         <v>3</v>
       </c>
       <c r="CN3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU3" s="0" t="n">
         <v>10</v>
@@ -1691,19 +1694,19 @@
         <v>5</v>
       </c>
       <c r="DF3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ3" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK3" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL3" s="0" t="n">
         <v>10</v>
@@ -1730,16 +1733,16 @@
         <v>1</v>
       </c>
       <c r="DV3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX3" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ3" s="0" t="n">
         <v>100</v>
@@ -1766,15 +1769,15 @@
         <v>1</v>
       </c>
       <c r="EI3" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1787,22 +1790,22 @@
         <v>hzb_TestP_AA_1_c-2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>100</v>
@@ -1811,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>10</v>
@@ -1820,7 +1823,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>20</v>
@@ -1829,22 +1832,22 @@
         <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA4" s="0" t="n">
         <v>2</v>
@@ -1874,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK4" s="0" t="n">
         <v>10</v>
@@ -1895,40 +1898,40 @@
         <v>100</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC4" s="0" t="n">
         <v>10</v>
@@ -1937,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="BE4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG4" s="0" t="n">
         <v>5</v>
@@ -1970,19 +1973,19 @@
         <v>14</v>
       </c>
       <c r="BP4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV4" s="0" t="n">
         <v>10</v>
@@ -2039,25 +2042,25 @@
         <v>3</v>
       </c>
       <c r="CN4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU4" s="0" t="n">
         <v>10</v>
@@ -2093,19 +2096,19 @@
         <v>5</v>
       </c>
       <c r="DF4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK4" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL4" s="0" t="n">
         <v>10</v>
@@ -2132,16 +2135,16 @@
         <v>1</v>
       </c>
       <c r="DV4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ4" s="0" t="n">
         <v>100</v>
@@ -2168,15 +2171,15 @@
         <v>1</v>
       </c>
       <c r="EI4" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -2189,22 +2192,22 @@
         <v>hzb_TestP_AA_1_c-3</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>100</v>
@@ -2213,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>10</v>
@@ -2222,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>20</v>
@@ -2231,22 +2234,22 @@
         <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA5" s="0" t="n">
         <v>2</v>
@@ -2276,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK5" s="0" t="n">
         <v>10</v>
@@ -2297,40 +2300,40 @@
         <v>100</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>10</v>
@@ -2339,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="BE5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG5" s="0" t="n">
         <v>5</v>
@@ -2372,19 +2375,19 @@
         <v>14</v>
       </c>
       <c r="BP5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU5" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV5" s="0" t="n">
         <v>10</v>
@@ -2441,25 +2444,25 @@
         <v>3</v>
       </c>
       <c r="CN5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO5" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU5" s="0" t="n">
         <v>10</v>
@@ -2495,19 +2498,19 @@
         <v>5</v>
       </c>
       <c r="DF5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL5" s="0" t="n">
         <v>10</v>
@@ -2534,16 +2537,16 @@
         <v>1</v>
       </c>
       <c r="DV5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ5" s="0" t="n">
         <v>100</v>
@@ -2570,15 +2573,15 @@
         <v>1</v>
       </c>
       <c r="EI5" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -2591,22 +2594,22 @@
         <v>hzb_TestP_AA_1_c-4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>100</v>
@@ -2615,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>10</v>
@@ -2624,7 +2627,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>20</v>
@@ -2633,22 +2636,22 @@
         <v>50</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA6" s="0" t="n">
         <v>2</v>
@@ -2678,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK6" s="0" t="n">
         <v>10</v>
@@ -2699,40 +2702,40 @@
         <v>100</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>10</v>
@@ -2741,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="BE6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG6" s="0" t="n">
         <v>5</v>
@@ -2774,19 +2777,19 @@
         <v>14</v>
       </c>
       <c r="BP6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU6" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV6" s="0" t="n">
         <v>10</v>
@@ -2843,25 +2846,25 @@
         <v>3</v>
       </c>
       <c r="CN6" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO6" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP6" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ6" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU6" s="0" t="n">
         <v>10</v>
@@ -2897,19 +2900,19 @@
         <v>5</v>
       </c>
       <c r="DF6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK6" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL6" s="0" t="n">
         <v>10</v>
@@ -2936,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="DV6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ6" s="0" t="n">
         <v>100</v>
@@ -2972,15 +2975,15 @@
         <v>1</v>
       </c>
       <c r="EI6" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -2993,22 +2996,22 @@
         <v>hzb_TestP_AA_1_c-5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>100</v>
@@ -3017,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>10</v>
@@ -3026,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>20</v>
@@ -3035,22 +3038,22 @@
         <v>50</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>2</v>
@@ -3080,7 +3083,7 @@
         <v>10</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK7" s="0" t="n">
         <v>10</v>
@@ -3101,40 +3104,40 @@
         <v>100</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>10</v>
@@ -3143,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="BE7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG7" s="0" t="n">
         <v>5</v>
@@ -3176,19 +3179,19 @@
         <v>14</v>
       </c>
       <c r="BP7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV7" s="0" t="n">
         <v>10</v>
@@ -3245,25 +3248,25 @@
         <v>3</v>
       </c>
       <c r="CN7" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ7" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU7" s="0" t="n">
         <v>10</v>
@@ -3299,19 +3302,19 @@
         <v>5</v>
       </c>
       <c r="DF7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL7" s="0" t="n">
         <v>10</v>
@@ -3338,16 +3341,16 @@
         <v>1</v>
       </c>
       <c r="DV7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ7" s="0" t="n">
         <v>100</v>
@@ -3374,15 +3377,15 @@
         <v>1</v>
       </c>
       <c r="EI7" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -3395,22 +3398,22 @@
         <v>hzb_TestP_AA_1_c-6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>100</v>
@@ -3419,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>10</v>
@@ -3428,7 +3431,7 @@
         <v>100</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>20</v>
@@ -3437,22 +3440,22 @@
         <v>50</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA8" s="0" t="n">
         <v>2</v>
@@ -3482,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK8" s="0" t="n">
         <v>10</v>
@@ -3503,40 +3506,40 @@
         <v>100</v>
       </c>
       <c r="AQ8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>10</v>
@@ -3545,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="BE8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG8" s="0" t="n">
         <v>5</v>
@@ -3578,19 +3581,19 @@
         <v>14</v>
       </c>
       <c r="BP8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS8" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU8" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV8" s="0" t="n">
         <v>10</v>
@@ -3647,25 +3650,25 @@
         <v>3</v>
       </c>
       <c r="CN8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP8" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU8" s="0" t="n">
         <v>10</v>
@@ -3701,19 +3704,19 @@
         <v>5</v>
       </c>
       <c r="DF8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ8" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK8" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL8" s="0" t="n">
         <v>10</v>
@@ -3740,16 +3743,16 @@
         <v>1</v>
       </c>
       <c r="DV8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX8" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ8" s="0" t="n">
         <v>100</v>
@@ -3776,15 +3779,15 @@
         <v>1</v>
       </c>
       <c r="EI8" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -3797,22 +3800,22 @@
         <v>hzb_TestP_AA_1_c-7</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>100</v>
@@ -3821,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>10</v>
@@ -3830,7 +3833,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>20</v>
@@ -3839,22 +3842,22 @@
         <v>50</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA9" s="0" t="n">
         <v>2</v>
@@ -3884,7 +3887,7 @@
         <v>10</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK9" s="0" t="n">
         <v>10</v>
@@ -3905,40 +3908,40 @@
         <v>100</v>
       </c>
       <c r="AQ9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>10</v>
@@ -3947,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="BE9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG9" s="0" t="n">
         <v>5</v>
@@ -3980,19 +3983,19 @@
         <v>14</v>
       </c>
       <c r="BP9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV9" s="0" t="n">
         <v>10</v>
@@ -4049,25 +4052,25 @@
         <v>3</v>
       </c>
       <c r="CN9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU9" s="0" t="n">
         <v>10</v>
@@ -4103,19 +4106,19 @@
         <v>5</v>
       </c>
       <c r="DF9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK9" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL9" s="0" t="n">
         <v>10</v>
@@ -4142,16 +4145,16 @@
         <v>1</v>
       </c>
       <c r="DV9" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ9" s="0" t="n">
         <v>100</v>
@@ -4178,15 +4181,15 @@
         <v>1</v>
       </c>
       <c r="EI9" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4199,22 +4202,22 @@
         <v>hzb_TestP_AA_1_c-8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>100</v>
@@ -4223,7 +4226,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>10</v>
@@ -4232,7 +4235,7 @@
         <v>100</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>20</v>
@@ -4241,22 +4244,22 @@
         <v>50</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA10" s="0" t="n">
         <v>2</v>
@@ -4286,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK10" s="0" t="n">
         <v>10</v>
@@ -4307,40 +4310,40 @@
         <v>100</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>10</v>
@@ -4349,10 +4352,10 @@
         <v>1</v>
       </c>
       <c r="BE10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG10" s="0" t="n">
         <v>5</v>
@@ -4382,19 +4385,19 @@
         <v>14</v>
       </c>
       <c r="BP10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV10" s="0" t="n">
         <v>10</v>
@@ -4451,25 +4454,25 @@
         <v>3</v>
       </c>
       <c r="CN10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU10" s="0" t="n">
         <v>10</v>
@@ -4505,19 +4508,19 @@
         <v>5</v>
       </c>
       <c r="DF10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK10" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL10" s="0" t="n">
         <v>10</v>
@@ -4544,16 +4547,16 @@
         <v>1</v>
       </c>
       <c r="DV10" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ10" s="0" t="n">
         <v>100</v>
@@ -4580,15 +4583,15 @@
         <v>1</v>
       </c>
       <c r="EI10" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4601,22 +4604,22 @@
         <v>hzb_TestP_AA_2_c-1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>100</v>
@@ -4625,7 +4628,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>10</v>
@@ -4634,7 +4637,7 @@
         <v>100</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>20</v>
@@ -4643,22 +4646,22 @@
         <v>50</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA11" s="0" t="n">
         <v>2</v>
@@ -4688,7 +4691,7 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK11" s="0" t="n">
         <v>10</v>
@@ -4709,40 +4712,40 @@
         <v>100</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>10</v>
@@ -4751,10 +4754,10 @@
         <v>1</v>
       </c>
       <c r="BE11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG11" s="0" t="n">
         <v>5</v>
@@ -4784,19 +4787,19 @@
         <v>14</v>
       </c>
       <c r="BP11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU11" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV11" s="0" t="n">
         <v>10</v>
@@ -4853,25 +4856,25 @@
         <v>3</v>
       </c>
       <c r="CN11" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU11" s="0" t="n">
         <v>10</v>
@@ -4907,19 +4910,19 @@
         <v>5</v>
       </c>
       <c r="DF11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL11" s="0" t="n">
         <v>10</v>
@@ -4946,16 +4949,16 @@
         <v>1</v>
       </c>
       <c r="DV11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW11" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ11" s="0" t="n">
         <v>100</v>
@@ -4982,15 +4985,15 @@
         <v>1</v>
       </c>
       <c r="EI11" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -5003,22 +5006,22 @@
         <v>hzb_TestP_AA_2_c-2</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>100</v>
@@ -5027,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>10</v>
@@ -5036,7 +5039,7 @@
         <v>100</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>20</v>
@@ -5045,22 +5048,22 @@
         <v>50</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA12" s="0" t="n">
         <v>2</v>
@@ -5090,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK12" s="0" t="n">
         <v>10</v>
@@ -5111,40 +5114,40 @@
         <v>100</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>10</v>
@@ -5153,10 +5156,10 @@
         <v>1</v>
       </c>
       <c r="BE12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG12" s="0" t="n">
         <v>5</v>
@@ -5186,19 +5189,19 @@
         <v>14</v>
       </c>
       <c r="BP12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS12" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU12" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV12" s="0" t="n">
         <v>10</v>
@@ -5255,25 +5258,25 @@
         <v>3</v>
       </c>
       <c r="CN12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP12" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ12" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU12" s="0" t="n">
         <v>10</v>
@@ -5309,19 +5312,19 @@
         <v>5</v>
       </c>
       <c r="DF12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL12" s="0" t="n">
         <v>10</v>
@@ -5348,16 +5351,16 @@
         <v>1</v>
       </c>
       <c r="DV12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ12" s="0" t="n">
         <v>100</v>
@@ -5384,15 +5387,15 @@
         <v>1</v>
       </c>
       <c r="EI12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -5405,22 +5408,22 @@
         <v>hzb_TestP_AA_2_c-3</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>100</v>
@@ -5429,7 +5432,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>10</v>
@@ -5438,7 +5441,7 @@
         <v>100</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>20</v>
@@ -5447,22 +5450,22 @@
         <v>50</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA13" s="0" t="n">
         <v>2</v>
@@ -5492,7 +5495,7 @@
         <v>10</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK13" s="0" t="n">
         <v>10</v>
@@ -5513,40 +5516,40 @@
         <v>100</v>
       </c>
       <c r="AQ13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>10</v>
@@ -5555,10 +5558,10 @@
         <v>1</v>
       </c>
       <c r="BE13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG13" s="0" t="n">
         <v>5</v>
@@ -5588,19 +5591,19 @@
         <v>14</v>
       </c>
       <c r="BP13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS13" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU13" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV13" s="0" t="n">
         <v>10</v>
@@ -5657,25 +5660,25 @@
         <v>3</v>
       </c>
       <c r="CN13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ13" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU13" s="0" t="n">
         <v>10</v>
@@ -5711,19 +5714,19 @@
         <v>5</v>
       </c>
       <c r="DF13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK13" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL13" s="0" t="n">
         <v>10</v>
@@ -5750,16 +5753,16 @@
         <v>1</v>
       </c>
       <c r="DV13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ13" s="0" t="n">
         <v>100</v>
@@ -5786,15 +5789,15 @@
         <v>1</v>
       </c>
       <c r="EI13" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -5807,22 +5810,22 @@
         <v>hzb_TestP_AA_2_c-4</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>100</v>
@@ -5831,7 +5834,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>10</v>
@@ -5840,7 +5843,7 @@
         <v>100</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>20</v>
@@ -5849,22 +5852,22 @@
         <v>50</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA14" s="0" t="n">
         <v>2</v>
@@ -5894,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK14" s="0" t="n">
         <v>10</v>
@@ -5915,40 +5918,40 @@
         <v>100</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>10</v>
@@ -5957,10 +5960,10 @@
         <v>1</v>
       </c>
       <c r="BE14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG14" s="0" t="n">
         <v>5</v>
@@ -5990,19 +5993,19 @@
         <v>14</v>
       </c>
       <c r="BP14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU14" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV14" s="0" t="n">
         <v>10</v>
@@ -6059,25 +6062,25 @@
         <v>3</v>
       </c>
       <c r="CN14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ14" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU14" s="0" t="n">
         <v>10</v>
@@ -6113,19 +6116,19 @@
         <v>5</v>
       </c>
       <c r="DF14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL14" s="0" t="n">
         <v>10</v>
@@ -6152,16 +6155,16 @@
         <v>1</v>
       </c>
       <c r="DV14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ14" s="0" t="n">
         <v>100</v>
@@ -6188,15 +6191,15 @@
         <v>1</v>
       </c>
       <c r="EI14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -6209,22 +6212,22 @@
         <v>hzb_TestP_AA_2_c-5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>100</v>
@@ -6233,7 +6236,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>10</v>
@@ -6242,7 +6245,7 @@
         <v>100</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>20</v>
@@ -6251,22 +6254,22 @@
         <v>50</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA15" s="0" t="n">
         <v>2</v>
@@ -6296,7 +6299,7 @@
         <v>10</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK15" s="0" t="n">
         <v>10</v>
@@ -6317,40 +6320,40 @@
         <v>100</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
@@ -6359,10 +6362,10 @@
         <v>1</v>
       </c>
       <c r="BE15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG15" s="0" t="n">
         <v>5</v>
@@ -6392,19 +6395,19 @@
         <v>14</v>
       </c>
       <c r="BP15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS15" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU15" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV15" s="0" t="n">
         <v>10</v>
@@ -6461,25 +6464,25 @@
         <v>3</v>
       </c>
       <c r="CN15" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU15" s="0" t="n">
         <v>10</v>
@@ -6515,19 +6518,19 @@
         <v>5</v>
       </c>
       <c r="DF15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI15" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ15" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK15" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL15" s="0" t="n">
         <v>10</v>
@@ -6554,16 +6557,16 @@
         <v>1</v>
       </c>
       <c r="DV15" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX15" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ15" s="0" t="n">
         <v>100</v>
@@ -6590,15 +6593,15 @@
         <v>1</v>
       </c>
       <c r="EI15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -6611,22 +6614,22 @@
         <v>hzb_TestP_AA_2_c-6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>100</v>
@@ -6635,7 +6638,7 @@
         <v>10</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>10</v>
@@ -6644,7 +6647,7 @@
         <v>100</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>20</v>
@@ -6653,22 +6656,22 @@
         <v>50</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA16" s="0" t="n">
         <v>2</v>
@@ -6698,7 +6701,7 @@
         <v>10</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK16" s="0" t="n">
         <v>10</v>
@@ -6719,40 +6722,40 @@
         <v>100</v>
       </c>
       <c r="AQ16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>10</v>
@@ -6761,10 +6764,10 @@
         <v>1</v>
       </c>
       <c r="BE16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG16" s="0" t="n">
         <v>5</v>
@@ -6794,19 +6797,19 @@
         <v>14</v>
       </c>
       <c r="BP16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV16" s="0" t="n">
         <v>10</v>
@@ -6863,25 +6866,25 @@
         <v>3</v>
       </c>
       <c r="CN16" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ16" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU16" s="0" t="n">
         <v>10</v>
@@ -6917,19 +6920,19 @@
         <v>5</v>
       </c>
       <c r="DF16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ16" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK16" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL16" s="0" t="n">
         <v>10</v>
@@ -6956,16 +6959,16 @@
         <v>1</v>
       </c>
       <c r="DV16" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX16" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ16" s="0" t="n">
         <v>100</v>
@@ -6992,15 +6995,15 @@
         <v>1</v>
       </c>
       <c r="EI16" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -7013,22 +7016,22 @@
         <v>hzb_TestP_AA_2_c-7</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>100</v>
@@ -7037,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>10</v>
@@ -7046,7 +7049,7 @@
         <v>100</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>20</v>
@@ -7055,22 +7058,22 @@
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA17" s="0" t="n">
         <v>2</v>
@@ -7100,7 +7103,7 @@
         <v>10</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK17" s="0" t="n">
         <v>10</v>
@@ -7121,40 +7124,40 @@
         <v>100</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>10</v>
@@ -7163,10 +7166,10 @@
         <v>1</v>
       </c>
       <c r="BE17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG17" s="0" t="n">
         <v>5</v>
@@ -7196,19 +7199,19 @@
         <v>14</v>
       </c>
       <c r="BP17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV17" s="0" t="n">
         <v>10</v>
@@ -7265,25 +7268,25 @@
         <v>3</v>
       </c>
       <c r="CN17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ17" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU17" s="0" t="n">
         <v>10</v>
@@ -7319,19 +7322,19 @@
         <v>5</v>
       </c>
       <c r="DF17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK17" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL17" s="0" t="n">
         <v>10</v>
@@ -7358,16 +7361,16 @@
         <v>1</v>
       </c>
       <c r="DV17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ17" s="0" t="n">
         <v>100</v>
@@ -7394,15 +7397,15 @@
         <v>1</v>
       </c>
       <c r="EI17" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -7415,22 +7418,22 @@
         <v>hzb_TestP_AA_2_c-8</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>100</v>
@@ -7439,7 +7442,7 @@
         <v>10</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>10</v>
@@ -7448,7 +7451,7 @@
         <v>100</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>20</v>
@@ -7457,22 +7460,22 @@
         <v>50</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA18" s="0" t="n">
         <v>2</v>
@@ -7502,7 +7505,7 @@
         <v>10</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK18" s="0" t="n">
         <v>10</v>
@@ -7523,40 +7526,40 @@
         <v>100</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT18" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AW18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AY18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>10</v>
@@ -7565,10 +7568,10 @@
         <v>1</v>
       </c>
       <c r="BE18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG18" s="0" t="n">
         <v>5</v>
@@ -7598,19 +7601,19 @@
         <v>14</v>
       </c>
       <c r="BP18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BR18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS18" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU18" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV18" s="0" t="n">
         <v>10</v>
@@ -7667,25 +7670,25 @@
         <v>3</v>
       </c>
       <c r="CN18" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CO18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CQ18" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CR18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CS18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CT18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CU18" s="0" t="n">
         <v>10</v>
@@ -7721,19 +7724,19 @@
         <v>5</v>
       </c>
       <c r="DF18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DH18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DI18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DJ18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DK18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DL18" s="0" t="n">
         <v>10</v>
@@ -7760,16 +7763,16 @@
         <v>1</v>
       </c>
       <c r="DV18" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW18" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DY18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DZ18" s="0" t="n">
         <v>100</v>
@@ -7796,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="EI18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="150">
   <si>
     <t xml:space="preserve">Experiment Info</t>
   </si>
@@ -127,10 +127,16 @@
     <t xml:space="preserve">Solvent 1 volume [uL]</t>
   </si>
   <si>
+    <t xml:space="preserve">Solvent 1 relative amount</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solute 1 name</t>
   </si>
   <si>
     <t xml:space="preserve">Solute 1 Concentration [mM]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute 1 relative amount</t>
   </si>
   <si>
     <t xml:space="preserve">Solution volume [um]</t>
@@ -641,13 +647,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:EJ31"/>
+  <dimension ref="A1:EL18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DN2" activeCellId="0" sqref="DN2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC18" activeCellId="0" sqref="AC4:AC18 AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
@@ -673,120 +679,120 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="86" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="105" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="108" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="111" min="111" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="116" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="117" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="120" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="122" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="88" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="107" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="111" min="111" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="116" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="117" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="121" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="122" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="124" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="126" min="126" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="126" min="126" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,11 +843,11 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
@@ -864,11 +870,11 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
@@ -882,20 +888,20 @@
       <c r="CE1" s="1"/>
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
       <c r="CR1" s="1"/>
       <c r="CS1" s="1"/>
       <c r="CT1" s="1"/>
@@ -912,11 +918,11 @@
       <c r="DE1" s="1"/>
       <c r="DF1" s="1"/>
       <c r="DG1" s="1"/>
-      <c r="DH1" s="1" t="s">
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
       <c r="DK1" s="1"/>
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
@@ -928,11 +934,11 @@
       <c r="DS1" s="1"/>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
-      <c r="DV1" s="1" t="s">
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
       <c r="DY1" s="1"/>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
@@ -943,12 +949,14 @@
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
-      <c r="EI1" s="1" t="s">
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="EJ1" s="1"/>
+      <c r="EL1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1082,31 +1090,31 @@
         <v>53</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="AZ2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>57</v>
@@ -1145,10 +1153,10 @@
         <v>68</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="BP2" s="2" t="s">
         <v>52</v>
@@ -1157,19 +1165,19 @@
         <v>53</v>
       </c>
       <c r="BR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="BW2" s="2" t="s">
         <v>71</v>
@@ -1226,43 +1234,43 @@
         <v>88</v>
       </c>
       <c r="CO2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CT2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="CV2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CW2" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="CX2" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="DB2" s="2" t="s">
         <v>93</v>
@@ -1271,10 +1279,10 @@
         <v>94</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="DF2" s="2" t="s">
         <v>52</v>
@@ -1283,19 +1291,19 @@
         <v>53</v>
       </c>
       <c r="DH2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="DI2" s="2" t="s">
+      <c r="DK2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DJ2" s="2" t="s">
+      <c r="DL2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="DM2" s="2" t="s">
         <v>97</v>
@@ -1313,37 +1321,37 @@
         <v>101</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="DV2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="DX2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="DW2" s="2" t="s">
+      <c r="DY2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DX2" s="2" t="s">
+      <c r="DZ2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="DY2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="EA2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="EC2" s="2" t="s">
         <v>107</v>
@@ -1355,27 +1363,33 @@
         <v>109</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1388,22 +1402,22 @@
         <v>hzb_TestP_AA_1_c-1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>100</v>
@@ -1412,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>10</v>
@@ -1421,7 +1435,7 @@
         <v>100</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>20</v>
@@ -1430,34 +1444,34 @@
         <v>50</v>
       </c>
       <c r="U3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>2</v>
+      <c r="Z3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>10</v>
@@ -1474,32 +1488,32 @@
       <c r="AI3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ3" s="0" t="s">
-        <v>119</v>
+      <c r="AJ3" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO3" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR3" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS3" s="0" t="s">
         <v>127</v>
@@ -1511,273 +1525,279 @@
         <v>129</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW3" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY3" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BE3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH3" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ3" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM3" s="0" t="n">
+      <c r="BN3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO3" s="0" t="n">
+      <c r="BP3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ3" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP3" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT3" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU3" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW3" s="0" t="n">
-        <v>100</v>
+      <c r="BV3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW3" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX3" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY3" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ3" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA3" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB3" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC3" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD3" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE3" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF3" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH3" s="0" t="n">
+      <c r="CJ3" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK3" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL3" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN3" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO3" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP3" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR3" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS3" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS3" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT3" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV3" s="0" t="n">
-        <v>10</v>
+      <c r="CV3" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW3" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB3" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC3" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD3" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF3" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI3" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ3" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK3" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM3" s="0" t="n">
-        <v>1</v>
+      <c r="DL3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM3" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN3" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO3" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ3" s="0" t="n">
+      <c r="DS3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="0" t="s">
+      <c r="DT3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ3" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW3" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX3" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA3" s="0" t="n">
-        <v>1</v>
+      <c r="EA3" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB3" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1790,22 +1810,22 @@
         <v>hzb_TestP_AA_1_c-2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>100</v>
@@ -1814,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>10</v>
@@ -1823,7 +1843,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>20</v>
@@ -1832,34 +1852,34 @@
         <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>2</v>
+      <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>10</v>
@@ -1876,32 +1896,32 @@
       <c r="AI4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ4" s="0" t="s">
-        <v>119</v>
+      <c r="AJ4" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO4" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR4" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS4" s="0" t="s">
         <v>127</v>
@@ -1913,273 +1933,279 @@
         <v>129</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY4" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="BE4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI4" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ4" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM4" s="0" t="n">
+      <c r="BN4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO4" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO4" s="0" t="n">
+      <c r="BP4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ4" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP4" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT4" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU4" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW4" s="0" t="n">
-        <v>100</v>
+      <c r="BV4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW4" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX4" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY4" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ4" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA4" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB4" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD4" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE4" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF4" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH4" s="0" t="n">
+      <c r="CJ4" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ4" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK4" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN4" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO4" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP4" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR4" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS4" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS4" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT4" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV4" s="0" t="n">
-        <v>10</v>
+      <c r="CV4" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW4" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ4" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD4" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF4" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI4" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ4" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK4" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM4" s="0" t="n">
-        <v>1</v>
+      <c r="DL4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM4" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN4" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO4" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR4" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ4" s="0" t="n">
+      <c r="DS4" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV4" s="0" t="s">
+      <c r="DT4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ4" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX4" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY4" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA4" s="0" t="n">
-        <v>1</v>
+      <c r="EA4" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB4" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF4" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF4" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK4" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -2192,22 +2218,22 @@
         <v>hzb_TestP_AA_1_c-3</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>100</v>
@@ -2216,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>10</v>
@@ -2225,7 +2251,7 @@
         <v>100</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>20</v>
@@ -2234,34 +2260,34 @@
         <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X5" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>2</v>
+      <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>10</v>
@@ -2278,32 +2304,32 @@
       <c r="AI5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ5" s="0" t="s">
-        <v>119</v>
+      <c r="AJ5" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO5" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ5" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS5" s="0" t="s">
         <v>127</v>
@@ -2315,273 +2341,279 @@
         <v>129</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW5" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY5" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG5" s="0" t="n">
+      <c r="BE5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ5" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM5" s="0" t="n">
+      <c r="BN5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO5" s="0" t="n">
+      <c r="BP5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP5" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR5" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT5" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU5" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW5" s="0" t="n">
-        <v>100</v>
+      <c r="BV5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW5" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX5" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY5" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ5" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA5" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB5" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC5" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD5" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE5" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF5" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH5" s="0" t="n">
+      <c r="CJ5" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK5" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL5" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN5" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO5" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP5" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS5" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS5" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT5" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV5" s="0" t="n">
-        <v>10</v>
+      <c r="CV5" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW5" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB5" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC5" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD5" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF5" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH5" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI5" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ5" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK5" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM5" s="0" t="n">
-        <v>1</v>
+      <c r="DL5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM5" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN5" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO5" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR5" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ5" s="0" t="n">
+      <c r="DS5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV5" s="0" t="s">
+      <c r="DT5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ5" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW5" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX5" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA5" s="0" t="n">
-        <v>1</v>
+      <c r="EA5" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB5" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI5" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -2594,22 +2626,22 @@
         <v>hzb_TestP_AA_1_c-4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>100</v>
@@ -2618,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>10</v>
@@ -2627,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>20</v>
@@ -2636,34 +2668,34 @@
         <v>50</v>
       </c>
       <c r="U6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>2</v>
+      <c r="Z6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>10</v>
@@ -2680,32 +2712,32 @@
       <c r="AI6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ6" s="0" t="s">
-        <v>119</v>
+      <c r="AJ6" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AL6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO6" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR6" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS6" s="0" t="s">
         <v>127</v>
@@ -2717,273 +2749,279 @@
         <v>129</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY6" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG6" s="0" t="n">
+      <c r="BE6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ6" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM6" s="0" t="n">
+      <c r="BN6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO6" s="0" t="n">
+      <c r="BP6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ6" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP6" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT6" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU6" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW6" s="0" t="n">
-        <v>100</v>
+      <c r="BV6" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW6" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX6" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY6" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ6" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA6" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB6" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC6" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD6" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE6" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF6" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH6" s="0" t="n">
+      <c r="CJ6" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK6" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL6" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN6" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO6" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP6" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR6" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS6" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS6" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT6" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV6" s="0" t="n">
-        <v>10</v>
+      <c r="CV6" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW6" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ6" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB6" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC6" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD6" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF6" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI6" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ6" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK6" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM6" s="0" t="n">
-        <v>1</v>
+      <c r="DL6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM6" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN6" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO6" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR6" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ6" s="0" t="n">
+      <c r="DS6" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV6" s="0" t="s">
+      <c r="DT6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ6" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX6" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA6" s="0" t="n">
-        <v>1</v>
+      <c r="EA6" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB6" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI6" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -2996,22 +3034,22 @@
         <v>hzb_TestP_AA_1_c-5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>100</v>
@@ -3020,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>10</v>
@@ -3029,7 +3067,7 @@
         <v>100</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>20</v>
@@ -3038,34 +3076,34 @@
         <v>50</v>
       </c>
       <c r="U7" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X7" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>2</v>
+      <c r="Z7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>10</v>
@@ -3082,32 +3120,32 @@
       <c r="AI7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ7" s="0" t="s">
-        <v>119</v>
+      <c r="AJ7" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AL7" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN7" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO7" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ7" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR7" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS7" s="0" t="s">
         <v>127</v>
@@ -3119,273 +3157,279 @@
         <v>129</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW7" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY7" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG7" s="0" t="n">
+      <c r="BE7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH7" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI7" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ7" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM7" s="0" t="n">
+      <c r="BN7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO7" s="0" t="n">
+      <c r="BP7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ7" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP7" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR7" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT7" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU7" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW7" s="0" t="n">
-        <v>100</v>
+      <c r="BV7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW7" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX7" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY7" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ7" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA7" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB7" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD7" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE7" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF7" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH7" s="0" t="n">
+      <c r="CJ7" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ7" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK7" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN7" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO7" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP7" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR7" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS7" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS7" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT7" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV7" s="0" t="n">
-        <v>10</v>
+      <c r="CV7" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW7" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ7" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD7" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF7" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH7" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI7" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ7" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK7" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM7" s="0" t="n">
-        <v>1</v>
+      <c r="DL7" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM7" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN7" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO7" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR7" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ7" s="0" t="n">
+      <c r="DS7" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV7" s="0" t="s">
+      <c r="DT7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ7" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX7" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY7" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA7" s="0" t="n">
-        <v>1</v>
+      <c r="EA7" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB7" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF7" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI7" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -3398,22 +3442,22 @@
         <v>hzb_TestP_AA_1_c-6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>100</v>
@@ -3422,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>10</v>
@@ -3431,7 +3475,7 @@
         <v>100</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>20</v>
@@ -3440,34 +3484,34 @@
         <v>50</v>
       </c>
       <c r="U8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X8" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z8" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>2</v>
+      <c r="Z8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>10</v>
@@ -3484,32 +3528,32 @@
       <c r="AI8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ8" s="0" t="s">
-        <v>119</v>
+      <c r="AJ8" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AL8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO8" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ8" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR8" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS8" s="0" t="s">
         <v>127</v>
@@ -3521,273 +3565,279 @@
         <v>129</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW8" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY8" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG8" s="0" t="n">
+      <c r="BE8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ8" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM8" s="0" t="n">
+      <c r="BN8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO8" s="0" t="n">
+      <c r="BP8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ8" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP8" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR8" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT8" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU8" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW8" s="0" t="n">
-        <v>100</v>
+      <c r="BV8" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW8" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX8" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY8" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ8" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA8" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB8" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC8" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD8" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE8" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF8" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH8" s="0" t="n">
+      <c r="CJ8" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ8" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK8" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL8" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN8" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO8" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP8" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR8" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS8" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS8" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT8" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV8" s="0" t="n">
-        <v>10</v>
+      <c r="CV8" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW8" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ8" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB8" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC8" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD8" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF8" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH8" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI8" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ8" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK8" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM8" s="0" t="n">
-        <v>1</v>
+      <c r="DL8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM8" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN8" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO8" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR8" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ8" s="0" t="n">
+      <c r="DS8" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV8" s="0" t="s">
+      <c r="DT8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ8" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW8" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX8" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA8" s="0" t="n">
-        <v>1</v>
+      <c r="EA8" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB8" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI8" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK8" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -3800,22 +3850,22 @@
         <v>hzb_TestP_AA_1_c-7</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>100</v>
@@ -3824,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>10</v>
@@ -3833,7 +3883,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>20</v>
@@ -3842,34 +3892,34 @@
         <v>50</v>
       </c>
       <c r="U9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z9" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>2</v>
+      <c r="Z9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>10</v>
@@ -3886,32 +3936,32 @@
       <c r="AI9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ9" s="0" t="s">
-        <v>119</v>
+      <c r="AJ9" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AL9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO9" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ9" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR9" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS9" s="0" t="s">
         <v>127</v>
@@ -3923,273 +3973,279 @@
         <v>129</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW9" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW9" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY9" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG9" s="0" t="n">
+      <c r="BE9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ9" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM9" s="0" t="n">
+      <c r="BN9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO9" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO9" s="0" t="n">
+      <c r="BP9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP9" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR9" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT9" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU9" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW9" s="0" t="n">
-        <v>100</v>
+      <c r="BV9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW9" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX9" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY9" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ9" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA9" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB9" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC9" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD9" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE9" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF9" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH9" s="0" t="n">
+      <c r="CJ9" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ9" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK9" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL9" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN9" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO9" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP9" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR9" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS9" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS9" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT9" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV9" s="0" t="n">
-        <v>10</v>
+      <c r="CV9" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW9" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ9" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB9" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC9" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD9" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF9" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH9" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI9" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ9" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK9" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM9" s="0" t="n">
-        <v>1</v>
+      <c r="DL9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM9" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN9" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO9" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR9" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ9" s="0" t="n">
+      <c r="DS9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="0" t="s">
+      <c r="DT9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ9" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW9" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX9" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA9" s="0" t="n">
-        <v>1</v>
+      <c r="EA9" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB9" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF9" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI9" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK9" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4202,22 +4258,22 @@
         <v>hzb_TestP_AA_1_c-8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>100</v>
@@ -4226,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>10</v>
@@ -4235,7 +4291,7 @@
         <v>100</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>20</v>
@@ -4244,34 +4300,34 @@
         <v>50</v>
       </c>
       <c r="U10" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V10" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>2</v>
+      <c r="Z10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>10</v>
@@ -4288,32 +4344,32 @@
       <c r="AI10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ10" s="0" t="s">
-        <v>119</v>
+      <c r="AJ10" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AL10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN10" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO10" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR10" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS10" s="0" t="s">
         <v>127</v>
@@ -4325,273 +4381,279 @@
         <v>129</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW10" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY10" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG10" s="0" t="n">
+      <c r="BE10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI10" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ10" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM10" s="0" t="n">
+      <c r="BN10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO10" s="0" t="n">
+      <c r="BP10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ10" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP10" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT10" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU10" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW10" s="0" t="n">
-        <v>100</v>
+      <c r="BV10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW10" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX10" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY10" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ10" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA10" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB10" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD10" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE10" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF10" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH10" s="0" t="n">
+      <c r="CJ10" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK10" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN10" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO10" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP10" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR10" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS10" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS10" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT10" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV10" s="0" t="n">
-        <v>10</v>
+      <c r="CV10" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW10" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD10" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF10" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI10" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ10" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM10" s="0" t="n">
-        <v>1</v>
+      <c r="DL10" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM10" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN10" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO10" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR10" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ10" s="0" t="n">
+      <c r="DS10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV10" s="0" t="s">
+      <c r="DT10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ10" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX10" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA10" s="0" t="n">
-        <v>1</v>
+      <c r="EA10" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB10" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF10" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI10" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK10" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4604,22 +4666,22 @@
         <v>hzb_TestP_AA_2_c-1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>100</v>
@@ -4628,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>10</v>
@@ -4637,7 +4699,7 @@
         <v>100</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>20</v>
@@ -4646,34 +4708,34 @@
         <v>50</v>
       </c>
       <c r="U11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V11" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z11" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>2</v>
+      <c r="Z11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>10</v>
@@ -4690,32 +4752,32 @@
       <c r="AI11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ11" s="0" t="s">
-        <v>119</v>
+      <c r="AJ11" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AL11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN11" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO11" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ11" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR11" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR11" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS11" s="0" t="s">
         <v>127</v>
@@ -4727,273 +4789,279 @@
         <v>129</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW11" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW11" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY11" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD11" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG11" s="0" t="n">
+      <c r="BE11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ11" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM11" s="0" t="n">
+      <c r="BN11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO11" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO11" s="0" t="n">
+      <c r="BP11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ11" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP11" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR11" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT11" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU11" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW11" s="0" t="n">
-        <v>100</v>
+      <c r="BV11" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW11" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX11" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY11" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ11" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA11" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC11" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD11" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE11" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF11" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH11" s="0" t="n">
+      <c r="CJ11" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ11" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL11" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN11" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO11" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP11" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR11" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS11" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS11" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT11" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV11" s="0" t="n">
-        <v>10</v>
+      <c r="CV11" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ11" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB11" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC11" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD11" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF11" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH11" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI11" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ11" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK11" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM11" s="0" t="n">
-        <v>1</v>
+      <c r="DL11" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM11" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN11" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO11" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR11" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ11" s="0" t="n">
+      <c r="DS11" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV11" s="0" t="s">
+      <c r="DT11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ11" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW11" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX11" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA11" s="0" t="n">
-        <v>1</v>
+      <c r="EA11" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB11" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI11" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -5006,22 +5074,22 @@
         <v>hzb_TestP_AA_2_c-2</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>100</v>
@@ -5030,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>10</v>
@@ -5039,7 +5107,7 @@
         <v>100</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>20</v>
@@ -5048,34 +5116,34 @@
         <v>50</v>
       </c>
       <c r="U12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z12" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>2</v>
+      <c r="Z12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>10</v>
@@ -5092,32 +5160,32 @@
       <c r="AI12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ12" s="0" t="s">
-        <v>119</v>
+      <c r="AJ12" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AL12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN12" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO12" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR12" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR12" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS12" s="0" t="s">
         <v>127</v>
@@ -5129,273 +5197,279 @@
         <v>129</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW12" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW12" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY12" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD12" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG12" s="0" t="n">
+      <c r="BE12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ12" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM12" s="0" t="n">
+      <c r="BN12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO12" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO12" s="0" t="n">
+      <c r="BP12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ12" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP12" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT12" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU12" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW12" s="0" t="n">
-        <v>100</v>
+      <c r="BV12" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW12" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX12" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY12" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ12" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA12" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB12" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC12" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE12" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF12" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH12" s="0" t="n">
+      <c r="CJ12" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ12" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK12" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL12" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN12" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO12" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP12" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR12" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS12" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS12" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT12" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV12" s="0" t="n">
-        <v>10</v>
+      <c r="CV12" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW12" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ12" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB12" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC12" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD12" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF12" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI12" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ12" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK12" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM12" s="0" t="n">
-        <v>1</v>
+      <c r="DL12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM12" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN12" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO12" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR12" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ12" s="0" t="n">
+      <c r="DS12" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV12" s="0" t="s">
+      <c r="DT12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ12" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX12" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA12" s="0" t="n">
-        <v>1</v>
+      <c r="EA12" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB12" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF12" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI12" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK12" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -5408,22 +5482,22 @@
         <v>hzb_TestP_AA_2_c-3</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>100</v>
@@ -5432,7 +5506,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>10</v>
@@ -5441,7 +5515,7 @@
         <v>100</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>20</v>
@@ -5450,34 +5524,34 @@
         <v>50</v>
       </c>
       <c r="U13" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V13" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z13" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>2</v>
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>10</v>
@@ -5494,32 +5568,32 @@
       <c r="AI13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ13" s="0" t="s">
-        <v>119</v>
+      <c r="AJ13" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN13" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO13" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ13" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR13" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS13" s="0" t="s">
         <v>127</v>
@@ -5531,273 +5605,279 @@
         <v>129</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW13" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW13" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY13" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG13" s="0" t="n">
+      <c r="BE13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ13" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM13" s="0" t="n">
+      <c r="BN13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO13" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO13" s="0" t="n">
+      <c r="BP13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ13" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP13" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR13" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT13" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU13" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW13" s="0" t="n">
-        <v>100</v>
+      <c r="BV13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW13" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX13" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY13" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ13" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA13" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC13" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE13" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF13" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH13" s="0" t="n">
+      <c r="CJ13" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL13" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN13" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO13" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP13" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR13" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS13" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS13" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT13" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV13" s="0" t="n">
-        <v>10</v>
+      <c r="CV13" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB13" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC13" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD13" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF13" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH13" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI13" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ13" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK13" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM13" s="0" t="n">
-        <v>1</v>
+      <c r="DL13" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM13" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN13" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO13" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR13" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ13" s="0" t="n">
+      <c r="DS13" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV13" s="0" t="s">
+      <c r="DT13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ13" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX13" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY13" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA13" s="0" t="n">
-        <v>1</v>
+      <c r="EA13" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB13" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF13" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI13" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK13" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -5810,22 +5890,22 @@
         <v>hzb_TestP_AA_2_c-4</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>100</v>
@@ -5834,7 +5914,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>10</v>
@@ -5843,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>20</v>
@@ -5852,34 +5932,34 @@
         <v>50</v>
       </c>
       <c r="U14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X14" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V14" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z14" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>2</v>
+      <c r="Z14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>10</v>
@@ -5896,32 +5976,32 @@
       <c r="AI14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ14" s="0" t="s">
-        <v>119</v>
+      <c r="AJ14" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO14" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ14" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR14" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR14" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS14" s="0" t="s">
         <v>127</v>
@@ -5933,273 +6013,279 @@
         <v>129</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW14" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW14" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY14" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD14" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG14" s="0" t="n">
+      <c r="BE14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ14" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM14" s="0" t="n">
+      <c r="BN14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO14" s="0" t="n">
+      <c r="BP14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP14" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR14" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT14" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU14" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW14" s="0" t="n">
-        <v>100</v>
+      <c r="BV14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW14" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX14" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY14" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ14" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA14" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB14" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC14" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE14" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF14" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH14" s="0" t="n">
+      <c r="CJ14" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ14" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK14" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL14" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN14" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO14" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP14" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS14" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS14" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT14" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV14" s="0" t="n">
-        <v>10</v>
+      <c r="CV14" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW14" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ14" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB14" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC14" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD14" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF14" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH14" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI14" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ14" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM14" s="0" t="n">
-        <v>1</v>
+      <c r="DL14" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM14" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN14" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO14" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR14" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ14" s="0" t="n">
+      <c r="DS14" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV14" s="0" t="s">
+      <c r="DT14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ14" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW14" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX14" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA14" s="0" t="n">
-        <v>1</v>
+      <c r="EA14" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB14" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI14" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK14" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -6212,22 +6298,22 @@
         <v>hzb_TestP_AA_2_c-5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>100</v>
@@ -6236,7 +6322,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>10</v>
@@ -6245,7 +6331,7 @@
         <v>100</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>20</v>
@@ -6254,34 +6340,34 @@
         <v>50</v>
       </c>
       <c r="U15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z15" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>2</v>
+      <c r="Z15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>10</v>
@@ -6298,32 +6384,32 @@
       <c r="AI15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ15" s="0" t="s">
-        <v>119</v>
+      <c r="AJ15" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO15" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ15" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR15" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR15" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS15" s="0" t="s">
         <v>127</v>
@@ -6335,273 +6421,279 @@
         <v>129</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW15" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY15" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD15" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG15" s="0" t="n">
+      <c r="BE15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ15" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM15" s="0" t="n">
+      <c r="BN15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO15" s="0" t="n">
+      <c r="BP15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP15" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR15" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT15" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU15" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW15" s="0" t="n">
-        <v>100</v>
+      <c r="BV15" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW15" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX15" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY15" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ15" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA15" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB15" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC15" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD15" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE15" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF15" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH15" s="0" t="n">
+      <c r="CJ15" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK15" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL15" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN15" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO15" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP15" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS15" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS15" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT15" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV15" s="0" t="n">
-        <v>10</v>
+      <c r="CV15" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW15" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB15" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC15" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD15" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF15" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH15" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI15" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ15" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK15" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM15" s="0" t="n">
-        <v>1</v>
+      <c r="DL15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM15" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN15" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO15" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR15" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ15" s="0" t="n">
+      <c r="DS15" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV15" s="0" t="s">
+      <c r="DT15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW15" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX15" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY15" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA15" s="0" t="n">
-        <v>1</v>
+      <c r="EA15" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB15" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI15" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK15" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -6614,22 +6706,22 @@
         <v>hzb_TestP_AA_2_c-6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>100</v>
@@ -6638,7 +6730,7 @@
         <v>10</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>10</v>
@@ -6647,7 +6739,7 @@
         <v>100</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>20</v>
@@ -6656,34 +6748,34 @@
         <v>50</v>
       </c>
       <c r="U16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X16" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V16" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>2</v>
+      <c r="Z16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>10</v>
@@ -6700,32 +6792,32 @@
       <c r="AI16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ16" s="0" t="s">
-        <v>119</v>
+      <c r="AJ16" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AL16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO16" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ16" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR16" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS16" s="0" t="s">
         <v>127</v>
@@ -6737,273 +6829,279 @@
         <v>129</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW16" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW16" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY16" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD16" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG16" s="0" t="n">
+      <c r="BE16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ16" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM16" s="0" t="n">
+      <c r="BN16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO16" s="0" t="n">
+      <c r="BP16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP16" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR16" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT16" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU16" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW16" s="0" t="n">
-        <v>100</v>
+      <c r="BV16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW16" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX16" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY16" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ16" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA16" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB16" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC16" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD16" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE16" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF16" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH16" s="0" t="n">
+      <c r="CJ16" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK16" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL16" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN16" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO16" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP16" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR16" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS16" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS16" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT16" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV16" s="0" t="n">
-        <v>10</v>
+      <c r="CV16" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW16" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB16" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC16" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD16" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF16" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH16" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI16" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ16" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK16" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM16" s="0" t="n">
-        <v>1</v>
+      <c r="DL16" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM16" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN16" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO16" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR16" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ16" s="0" t="n">
+      <c r="DS16" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV16" s="0" t="s">
+      <c r="DT16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ16" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW16" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX16" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY16" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA16" s="0" t="n">
-        <v>1</v>
+      <c r="EA16" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB16" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI16" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK16" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -7016,22 +7114,22 @@
         <v>hzb_TestP_AA_2_c-7</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>100</v>
@@ -7040,7 +7138,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>10</v>
@@ -7049,7 +7147,7 @@
         <v>100</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>20</v>
@@ -7058,34 +7156,34 @@
         <v>50</v>
       </c>
       <c r="U17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V17" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <v>2</v>
+      <c r="Z17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>10</v>
@@ -7102,32 +7200,32 @@
       <c r="AI17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ17" s="0" t="s">
-        <v>119</v>
+      <c r="AJ17" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AL17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN17" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO17" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR17" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR17" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS17" s="0" t="s">
         <v>127</v>
@@ -7139,273 +7237,279 @@
         <v>129</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW17" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW17" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY17" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG17" s="0" t="n">
+      <c r="BE17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI17" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ17" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM17" s="0" t="n">
+      <c r="BN17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO17" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO17" s="0" t="n">
+      <c r="BP17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ17" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP17" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT17" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU17" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW17" s="0" t="n">
-        <v>100</v>
+      <c r="BV17" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW17" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX17" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY17" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ17" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA17" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB17" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD17" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE17" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF17" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH17" s="0" t="n">
+      <c r="CJ17" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ17" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK17" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN17" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO17" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP17" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS17" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS17" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT17" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV17" s="0" t="n">
-        <v>10</v>
+      <c r="CV17" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW17" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ17" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD17" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF17" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI17" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ17" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK17" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM17" s="0" t="n">
-        <v>1</v>
+      <c r="DL17" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM17" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN17" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO17" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR17" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ17" s="0" t="n">
+      <c r="DS17" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV17" s="0" t="s">
+      <c r="DT17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ17" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX17" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA17" s="0" t="n">
-        <v>1</v>
+      <c r="EA17" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB17" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF17" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF17" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI17" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK17" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -7418,22 +7522,22 @@
         <v>hzb_TestP_AA_2_c-8</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>100</v>
@@ -7442,7 +7546,7 @@
         <v>10</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>10</v>
@@ -7451,7 +7555,7 @@
         <v>100</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>20</v>
@@ -7460,34 +7564,34 @@
         <v>50</v>
       </c>
       <c r="U18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X18" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V18" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="Y18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z18" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>2</v>
+      <c r="Z18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="AB18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>10</v>
@@ -7504,32 +7608,32 @@
       <c r="AI18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AJ18" s="0" t="s">
-        <v>119</v>
+      <c r="AJ18" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AK18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AL18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AM18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN18" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="AO18" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AP18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ18" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR18" s="0" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AS18" s="0" t="s">
         <v>127</v>
@@ -7541,292 +7645,285 @@
         <v>129</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW18" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="AW18" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AY18" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BA18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="BG18" s="0" t="n">
+      <c r="BE18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BH18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI18" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ18" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BK18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="BL18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM18" s="0" t="n">
+      <c r="BN18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO18" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="BN18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="BO18" s="0" t="n">
+      <c r="BP18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="BQ18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="BP18" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="BR18" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT18" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BU18" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="BV18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW18" s="0" t="n">
-        <v>100</v>
+      <c r="BV18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW18" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="BX18" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY18" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="BZ18" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CA18" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB18" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CC18" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CD18" s="0" t="n">
         <v>12</v>
       </c>
       <c r="CE18" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF18" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CH18" s="0" t="n">
+      <c r="CJ18" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CI18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CJ18" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="CK18" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CL18" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CN18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CO18" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="CP18" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="CQ18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CR18" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="CS18" s="0" t="n">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="CS18" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="CT18" s="0" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="CU18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="CV18" s="0" t="n">
-        <v>10</v>
+      <c r="CV18" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="CW18" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CX18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CZ18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="CY18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ18" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="DA18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB18" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DC18" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DD18" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="DF18" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="DH18" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI18" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="DJ18" s="0" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="DK18" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="DL18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DM18" s="0" t="n">
-        <v>1</v>
+      <c r="DL18" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM18" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="DN18" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="DO18" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="DP18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DQ18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="DR18" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DQ18" s="0" t="n">
+      <c r="DS18" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DR18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV18" s="0" t="s">
+      <c r="DT18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DU18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ18" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="DW18" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX18" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="DZ18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EA18" s="0" t="n">
-        <v>1</v>
+      <c r="EA18" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="EB18" s="0" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="EC18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="ED18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF18" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EE18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EF18" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="EG18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI18" s="0" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="EH18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="EI18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK18" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AR1"/>
-    <mergeCell ref="AS1:BQ1"/>
-    <mergeCell ref="BR1:CG1"/>
-    <mergeCell ref="CH1:CN1"/>
-    <mergeCell ref="CO1:DG1"/>
-    <mergeCell ref="DH1:DU1"/>
-    <mergeCell ref="DV1:EH1"/>
-    <mergeCell ref="EI1:EJ1"/>
+    <mergeCell ref="U1:AT1"/>
+    <mergeCell ref="AU1:BS1"/>
+    <mergeCell ref="BT1:CI1"/>
+    <mergeCell ref="CJ1:CP1"/>
+    <mergeCell ref="CQ1:DI1"/>
+    <mergeCell ref="DJ1:DW1"/>
+    <mergeCell ref="DX1:EJ1"/>
+    <mergeCell ref="EK1:EL1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Solvent 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Time 2 [s]</t>
+    <t xml:space="preserve">Time 2 [min]</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature 2 [°C]</t>
@@ -649,8 +649,8 @@
   </sheetPr>
   <dimension ref="A1:EL18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC18" activeCellId="0" sqref="AC4:AC18 AC18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="155">
   <si>
     <t xml:space="preserve">Experiment Info</t>
   </si>
@@ -145,61 +145,64 @@
     <t xml:space="preserve">Solute 1 name</t>
   </si>
   <si>
+    <t xml:space="preserve">Solute 1 Concentration [mg/ml]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute 1 relative amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution volume [um]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spin Delay [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation speed 1 [rpm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation time 1 [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration 1 [rpm/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation speed 2 [rpm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation time 2 [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceleration 2 [rpm/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent volume [ml]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent dropping time [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent dropping speed [ul/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti solvent dropping heigt [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annealing time [min]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annealing temperature [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annealing athmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute 1 type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solute 1 Concentration [mM]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solute 1 relative amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution volume [um]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spin Delay [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation speed 1 [rpm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation time 1 [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration 1 [rpm/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation speed 2 [rpm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation time 2 [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration 2 [rpm/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent volume [ml]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent dropping time [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent dropping speed [ul/s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti solvent dropping heigt [mm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annealing time [min]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annealing temperature [°C]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annealing athmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solute 1 type</t>
   </si>
   <si>
     <t xml:space="preserve">Solute 2 type</t>
@@ -661,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,49 +1145,49 @@
         <v>59</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>56</v>
@@ -1208,64 +1211,64 @@
         <v>36</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CU2" s="2" t="s">
         <v>34</v>
@@ -1286,31 +1289,31 @@
         <v>59</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="DB2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="DJ2" s="2" t="s">
         <v>56</v>
@@ -1334,34 +1337,34 @@
         <v>36</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EA2" s="2" t="s">
         <v>20</v>
@@ -1376,37 +1379,37 @@
         <v>36</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="EF2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="EL2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="EG2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="EM2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="EN2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="EP2" s="2" t="s">
         <v>20</v>
@@ -1414,10 +1417,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1430,7 +1433,7 @@
         <v>hzb_TestP_AA_1_c-1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.16</v>
@@ -1442,22 +1445,22 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>100</v>
@@ -1466,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>10</v>
@@ -1475,7 +1478,7 @@
         <v>100</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1484,16 +1487,16 @@
         <v>50</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>1</v>
@@ -1502,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>2</v>
@@ -1535,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ3" s="0" t="n">
         <v>10</v>
@@ -1556,40 +1559,40 @@
         <v>100</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI3" s="0" t="n">
         <v>10</v>
@@ -1598,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM3" s="0" t="n">
         <v>5</v>
@@ -1631,19 +1634,19 @@
         <v>14</v>
       </c>
       <c r="BV3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB3" s="0" t="n">
         <v>10</v>
@@ -1700,25 +1703,25 @@
         <v>3</v>
       </c>
       <c r="CT3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU3" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW3" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ3" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA3" s="0" t="n">
         <v>10</v>
@@ -1754,19 +1757,19 @@
         <v>5</v>
       </c>
       <c r="DL3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO3" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ3" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR3" s="0" t="n">
         <v>10</v>
@@ -1793,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="EB3" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF3" s="0" t="n">
         <v>100</v>
@@ -1829,15 +1832,15 @@
         <v>1</v>
       </c>
       <c r="EO3" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1850,7 +1853,7 @@
         <v>hzb_TestP_AA_1_c-2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.16</v>
@@ -1862,22 +1865,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>100</v>
@@ -1886,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>10</v>
@@ -1895,7 +1898,7 @@
         <v>100</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>20</v>
@@ -1904,16 +1907,16 @@
         <v>50</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>1</v>
@@ -1922,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>2</v>
@@ -1955,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>10</v>
@@ -1976,40 +1979,40 @@
         <v>100</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI4" s="0" t="n">
         <v>10</v>
@@ -2018,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM4" s="0" t="n">
         <v>5</v>
@@ -2051,19 +2054,19 @@
         <v>14</v>
       </c>
       <c r="BV4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA4" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB4" s="0" t="n">
         <v>10</v>
@@ -2120,25 +2123,25 @@
         <v>3</v>
       </c>
       <c r="CT4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU4" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW4" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ4" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA4" s="0" t="n">
         <v>10</v>
@@ -2174,19 +2177,19 @@
         <v>5</v>
       </c>
       <c r="DL4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO4" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP4" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ4" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR4" s="0" t="n">
         <v>10</v>
@@ -2213,16 +2216,16 @@
         <v>1</v>
       </c>
       <c r="EB4" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED4" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF4" s="0" t="n">
         <v>100</v>
@@ -2249,15 +2252,15 @@
         <v>1</v>
       </c>
       <c r="EO4" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -2270,7 +2273,7 @@
         <v>hzb_TestP_AA_1_c-3</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.16</v>
@@ -2282,22 +2285,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>100</v>
@@ -2306,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>10</v>
@@ -2315,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>20</v>
@@ -2324,16 +2327,16 @@
         <v>50</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>1</v>
@@ -2342,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2</v>
@@ -2375,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>10</v>
@@ -2396,40 +2399,40 @@
         <v>100</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI5" s="0" t="n">
         <v>10</v>
@@ -2438,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM5" s="0" t="n">
         <v>5</v>
@@ -2471,19 +2474,19 @@
         <v>14</v>
       </c>
       <c r="BV5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB5" s="0" t="n">
         <v>10</v>
@@ -2540,25 +2543,25 @@
         <v>3</v>
       </c>
       <c r="CT5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU5" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW5" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ5" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA5" s="0" t="n">
         <v>10</v>
@@ -2594,19 +2597,19 @@
         <v>5</v>
       </c>
       <c r="DL5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO5" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP5" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR5" s="0" t="n">
         <v>10</v>
@@ -2633,16 +2636,16 @@
         <v>1</v>
       </c>
       <c r="EB5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED5" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF5" s="0" t="n">
         <v>100</v>
@@ -2669,15 +2672,15 @@
         <v>1</v>
       </c>
       <c r="EO5" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -2690,7 +2693,7 @@
         <v>hzb_TestP_AA_1_c-4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.16</v>
@@ -2702,22 +2705,22 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>100</v>
@@ -2726,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>10</v>
@@ -2735,7 +2738,7 @@
         <v>100</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -2744,16 +2747,16 @@
         <v>50</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>1</v>
@@ -2762,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>2</v>
@@ -2795,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ6" s="0" t="n">
         <v>10</v>
@@ -2816,40 +2819,40 @@
         <v>100</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI6" s="0" t="n">
         <v>10</v>
@@ -2858,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM6" s="0" t="n">
         <v>5</v>
@@ -2891,19 +2894,19 @@
         <v>14</v>
       </c>
       <c r="BV6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB6" s="0" t="n">
         <v>10</v>
@@ -2960,25 +2963,25 @@
         <v>3</v>
       </c>
       <c r="CT6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU6" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW6" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA6" s="0" t="n">
         <v>10</v>
@@ -3014,19 +3017,19 @@
         <v>5</v>
       </c>
       <c r="DL6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO6" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP6" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ6" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR6" s="0" t="n">
         <v>10</v>
@@ -3053,16 +3056,16 @@
         <v>1</v>
       </c>
       <c r="EB6" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED6" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF6" s="0" t="n">
         <v>100</v>
@@ -3089,15 +3092,15 @@
         <v>1</v>
       </c>
       <c r="EO6" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -3110,7 +3113,7 @@
         <v>hzb_TestP_AA_1_c-5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.16</v>
@@ -3122,22 +3125,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>100</v>
@@ -3146,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>10</v>
@@ -3155,7 +3158,7 @@
         <v>100</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -3164,16 +3167,16 @@
         <v>50</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC7" s="0" t="n">
         <v>1</v>
@@ -3182,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>2</v>
@@ -3215,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>10</v>
@@ -3236,40 +3239,40 @@
         <v>100</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI7" s="0" t="n">
         <v>10</v>
@@ -3278,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM7" s="0" t="n">
         <v>5</v>
@@ -3311,19 +3314,19 @@
         <v>14</v>
       </c>
       <c r="BV7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB7" s="0" t="n">
         <v>10</v>
@@ -3380,25 +3383,25 @@
         <v>3</v>
       </c>
       <c r="CT7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU7" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW7" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ7" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA7" s="0" t="n">
         <v>10</v>
@@ -3434,19 +3437,19 @@
         <v>5</v>
       </c>
       <c r="DL7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO7" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ7" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR7" s="0" t="n">
         <v>10</v>
@@ -3473,16 +3476,16 @@
         <v>1</v>
       </c>
       <c r="EB7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF7" s="0" t="n">
         <v>100</v>
@@ -3509,15 +3512,15 @@
         <v>1</v>
       </c>
       <c r="EO7" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -3530,7 +3533,7 @@
         <v>hzb_TestP_AA_1_c-6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.16</v>
@@ -3542,22 +3545,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>100</v>
@@ -3566,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>10</v>
@@ -3575,7 +3578,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -3584,16 +3587,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
@@ -3602,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>2</v>
@@ -3635,7 +3638,7 @@
         <v>10</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ8" s="0" t="n">
         <v>10</v>
@@ -3656,40 +3659,40 @@
         <v>100</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI8" s="0" t="n">
         <v>10</v>
@@ -3698,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="BK8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM8" s="0" t="n">
         <v>5</v>
@@ -3731,19 +3734,19 @@
         <v>14</v>
       </c>
       <c r="BV8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ8" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA8" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB8" s="0" t="n">
         <v>10</v>
@@ -3800,25 +3803,25 @@
         <v>3</v>
       </c>
       <c r="CT8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU8" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW8" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ8" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA8" s="0" t="n">
         <v>10</v>
@@ -3854,19 +3857,19 @@
         <v>5</v>
       </c>
       <c r="DL8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO8" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ8" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR8" s="0" t="n">
         <v>10</v>
@@ -3893,16 +3896,16 @@
         <v>1</v>
       </c>
       <c r="EB8" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF8" s="0" t="n">
         <v>100</v>
@@ -3929,15 +3932,15 @@
         <v>1</v>
       </c>
       <c r="EO8" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -3950,7 +3953,7 @@
         <v>hzb_TestP_AA_1_c-7</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.16</v>
@@ -3962,22 +3965,22 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>100</v>
@@ -3986,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>10</v>
@@ -3995,7 +3998,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
@@ -4004,16 +4007,16 @@
         <v>50</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>1</v>
@@ -4022,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>2</v>
@@ -4055,7 +4058,7 @@
         <v>10</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>10</v>
@@ -4076,40 +4079,40 @@
         <v>100</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI9" s="0" t="n">
         <v>10</v>
@@ -4118,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM9" s="0" t="n">
         <v>5</v>
@@ -4151,19 +4154,19 @@
         <v>14</v>
       </c>
       <c r="BV9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB9" s="0" t="n">
         <v>10</v>
@@ -4220,25 +4223,25 @@
         <v>3</v>
       </c>
       <c r="CT9" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU9" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW9" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ9" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA9" s="0" t="n">
         <v>10</v>
@@ -4274,19 +4277,19 @@
         <v>5</v>
       </c>
       <c r="DL9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO9" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP9" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ9" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR9" s="0" t="n">
         <v>10</v>
@@ -4313,16 +4316,16 @@
         <v>1</v>
       </c>
       <c r="EB9" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED9" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF9" s="0" t="n">
         <v>100</v>
@@ -4349,15 +4352,15 @@
         <v>1</v>
       </c>
       <c r="EO9" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4370,7 +4373,7 @@
         <v>hzb_TestP_AA_1_c-8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.16</v>
@@ -4382,22 +4385,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>100</v>
@@ -4406,7 +4409,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>10</v>
@@ -4415,7 +4418,7 @@
         <v>100</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -4424,16 +4427,16 @@
         <v>50</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC10" s="0" t="n">
         <v>1</v>
@@ -4442,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>2</v>
@@ -4475,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ10" s="0" t="n">
         <v>10</v>
@@ -4496,40 +4499,40 @@
         <v>100</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI10" s="0" t="n">
         <v>10</v>
@@ -4538,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM10" s="0" t="n">
         <v>5</v>
@@ -4571,19 +4574,19 @@
         <v>14</v>
       </c>
       <c r="BV10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB10" s="0" t="n">
         <v>10</v>
@@ -4640,25 +4643,25 @@
         <v>3</v>
       </c>
       <c r="CT10" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU10" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW10" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ10" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA10" s="0" t="n">
         <v>10</v>
@@ -4694,19 +4697,19 @@
         <v>5</v>
       </c>
       <c r="DL10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO10" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP10" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ10" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR10" s="0" t="n">
         <v>10</v>
@@ -4733,16 +4736,16 @@
         <v>1</v>
       </c>
       <c r="EB10" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED10" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF10" s="0" t="n">
         <v>100</v>
@@ -4769,15 +4772,15 @@
         <v>1</v>
       </c>
       <c r="EO10" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4790,7 +4793,7 @@
         <v>hzb_TestP_AA_2_c-1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.16</v>
@@ -4802,22 +4805,22 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>100</v>
@@ -4826,7 +4829,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>10</v>
@@ -4835,7 +4838,7 @@
         <v>100</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
@@ -4844,16 +4847,16 @@
         <v>50</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>1</v>
@@ -4862,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>2</v>
@@ -4895,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ11" s="0" t="n">
         <v>10</v>
@@ -4916,40 +4919,40 @@
         <v>100</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH11" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI11" s="0" t="n">
         <v>10</v>
@@ -4958,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM11" s="0" t="n">
         <v>5</v>
@@ -4991,19 +4994,19 @@
         <v>14</v>
       </c>
       <c r="BV11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB11" s="0" t="n">
         <v>10</v>
@@ -5060,25 +5063,25 @@
         <v>3</v>
       </c>
       <c r="CT11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU11" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW11" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ11" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA11" s="0" t="n">
         <v>10</v>
@@ -5114,19 +5117,19 @@
         <v>5</v>
       </c>
       <c r="DL11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO11" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP11" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ11" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR11" s="0" t="n">
         <v>10</v>
@@ -5153,16 +5156,16 @@
         <v>1</v>
       </c>
       <c r="EB11" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED11" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF11" s="0" t="n">
         <v>100</v>
@@ -5189,15 +5192,15 @@
         <v>1</v>
       </c>
       <c r="EO11" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -5210,7 +5213,7 @@
         <v>hzb_TestP_AA_2_c-2</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.16</v>
@@ -5222,22 +5225,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>100</v>
@@ -5246,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>10</v>
@@ -5255,7 +5258,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
@@ -5264,16 +5267,16 @@
         <v>50</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC12" s="0" t="n">
         <v>1</v>
@@ -5282,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>2</v>
@@ -5315,7 +5318,7 @@
         <v>10</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ12" s="0" t="n">
         <v>10</v>
@@ -5336,40 +5339,40 @@
         <v>100</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI12" s="0" t="n">
         <v>10</v>
@@ -5378,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="BK12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL12" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM12" s="0" t="n">
         <v>5</v>
@@ -5411,19 +5414,19 @@
         <v>14</v>
       </c>
       <c r="BV12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB12" s="0" t="n">
         <v>10</v>
@@ -5480,25 +5483,25 @@
         <v>3</v>
       </c>
       <c r="CT12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW12" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ12" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA12" s="0" t="n">
         <v>10</v>
@@ -5534,19 +5537,19 @@
         <v>5</v>
       </c>
       <c r="DL12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO12" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP12" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ12" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR12" s="0" t="n">
         <v>10</v>
@@ -5573,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="EB12" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED12" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF12" s="0" t="n">
         <v>100</v>
@@ -5609,15 +5612,15 @@
         <v>1</v>
       </c>
       <c r="EO12" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -5630,7 +5633,7 @@
         <v>hzb_TestP_AA_2_c-3</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.16</v>
@@ -5642,22 +5645,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>100</v>
@@ -5666,7 +5669,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>10</v>
@@ -5675,7 +5678,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>20</v>
@@ -5684,16 +5687,16 @@
         <v>50</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>1</v>
@@ -5702,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>2</v>
@@ -5735,7 +5738,7 @@
         <v>10</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>10</v>
@@ -5756,40 +5759,40 @@
         <v>100</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI13" s="0" t="n">
         <v>10</v>
@@ -5798,10 +5801,10 @@
         <v>1</v>
       </c>
       <c r="BK13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL13" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM13" s="0" t="n">
         <v>5</v>
@@ -5831,19 +5834,19 @@
         <v>14</v>
       </c>
       <c r="BV13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA13" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB13" s="0" t="n">
         <v>10</v>
@@ -5900,25 +5903,25 @@
         <v>3</v>
       </c>
       <c r="CT13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU13" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ13" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA13" s="0" t="n">
         <v>10</v>
@@ -5954,19 +5957,19 @@
         <v>5</v>
       </c>
       <c r="DL13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO13" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP13" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ13" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR13" s="0" t="n">
         <v>10</v>
@@ -5993,16 +5996,16 @@
         <v>1</v>
       </c>
       <c r="EB13" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED13" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF13" s="0" t="n">
         <v>100</v>
@@ -6029,15 +6032,15 @@
         <v>1</v>
       </c>
       <c r="EO13" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -6050,7 +6053,7 @@
         <v>hzb_TestP_AA_2_c-4</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.16</v>
@@ -6062,22 +6065,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>100</v>
@@ -6086,7 +6089,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>10</v>
@@ -6095,7 +6098,7 @@
         <v>100</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>20</v>
@@ -6104,16 +6107,16 @@
         <v>50</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>1</v>
@@ -6122,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>2</v>
@@ -6155,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ14" s="0" t="n">
         <v>10</v>
@@ -6176,40 +6179,40 @@
         <v>100</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI14" s="0" t="n">
         <v>10</v>
@@ -6218,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL14" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM14" s="0" t="n">
         <v>5</v>
@@ -6251,19 +6254,19 @@
         <v>14</v>
       </c>
       <c r="BV14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB14" s="0" t="n">
         <v>10</v>
@@ -6320,25 +6323,25 @@
         <v>3</v>
       </c>
       <c r="CT14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ14" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA14" s="0" t="n">
         <v>10</v>
@@ -6374,19 +6377,19 @@
         <v>5</v>
       </c>
       <c r="DL14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO14" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP14" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ14" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR14" s="0" t="n">
         <v>10</v>
@@ -6413,16 +6416,16 @@
         <v>1</v>
       </c>
       <c r="EB14" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED14" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF14" s="0" t="n">
         <v>100</v>
@@ -6449,15 +6452,15 @@
         <v>1</v>
       </c>
       <c r="EO14" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -6470,7 +6473,7 @@
         <v>hzb_TestP_AA_2_c-5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.16</v>
@@ -6482,22 +6485,22 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>100</v>
@@ -6506,7 +6509,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>10</v>
@@ -6515,7 +6518,7 @@
         <v>100</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>20</v>
@@ -6524,16 +6527,16 @@
         <v>50</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC15" s="0" t="n">
         <v>1</v>
@@ -6542,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>2</v>
@@ -6575,7 +6578,7 @@
         <v>10</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ15" s="0" t="n">
         <v>10</v>
@@ -6596,40 +6599,40 @@
         <v>100</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH15" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI15" s="0" t="n">
         <v>10</v>
@@ -6638,10 +6641,10 @@
         <v>1</v>
       </c>
       <c r="BK15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM15" s="0" t="n">
         <v>5</v>
@@ -6671,19 +6674,19 @@
         <v>14</v>
       </c>
       <c r="BV15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY15" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ15" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA15" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB15" s="0" t="n">
         <v>10</v>
@@ -6740,25 +6743,25 @@
         <v>3</v>
       </c>
       <c r="CT15" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW15" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ15" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA15" s="0" t="n">
         <v>10</v>
@@ -6794,19 +6797,19 @@
         <v>5</v>
       </c>
       <c r="DL15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO15" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP15" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ15" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR15" s="0" t="n">
         <v>10</v>
@@ -6833,16 +6836,16 @@
         <v>1</v>
       </c>
       <c r="EB15" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED15" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF15" s="0" t="n">
         <v>100</v>
@@ -6869,15 +6872,15 @@
         <v>1</v>
       </c>
       <c r="EO15" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -6890,7 +6893,7 @@
         <v>hzb_TestP_AA_2_c-6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.16</v>
@@ -6902,22 +6905,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>100</v>
@@ -6926,7 +6929,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>10</v>
@@ -6935,7 +6938,7 @@
         <v>100</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -6944,16 +6947,16 @@
         <v>50</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC16" s="0" t="n">
         <v>1</v>
@@ -6962,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>2</v>
@@ -6995,7 +6998,7 @@
         <v>10</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ16" s="0" t="n">
         <v>10</v>
@@ -7016,40 +7019,40 @@
         <v>100</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH16" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI16" s="0" t="n">
         <v>10</v>
@@ -7058,10 +7061,10 @@
         <v>1</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM16" s="0" t="n">
         <v>5</v>
@@ -7091,19 +7094,19 @@
         <v>14</v>
       </c>
       <c r="BV16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ16" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA16" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB16" s="0" t="n">
         <v>10</v>
@@ -7160,25 +7163,25 @@
         <v>3</v>
       </c>
       <c r="CT16" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU16" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW16" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA16" s="0" t="n">
         <v>10</v>
@@ -7214,19 +7217,19 @@
         <v>5</v>
       </c>
       <c r="DL16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO16" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR16" s="0" t="n">
         <v>10</v>
@@ -7253,16 +7256,16 @@
         <v>1</v>
       </c>
       <c r="EB16" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF16" s="0" t="n">
         <v>100</v>
@@ -7289,15 +7292,15 @@
         <v>1</v>
       </c>
       <c r="EO16" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -7310,7 +7313,7 @@
         <v>hzb_TestP_AA_2_c-7</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.16</v>
@@ -7322,22 +7325,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>100</v>
@@ -7346,7 +7349,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>10</v>
@@ -7355,7 +7358,7 @@
         <v>100</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>20</v>
@@ -7364,16 +7367,16 @@
         <v>50</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>1</v>
@@ -7382,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>2</v>
@@ -7415,7 +7418,7 @@
         <v>10</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ17" s="0" t="n">
         <v>10</v>
@@ -7436,40 +7439,40 @@
         <v>100</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI17" s="0" t="n">
         <v>10</v>
@@ -7478,10 +7481,10 @@
         <v>1</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM17" s="0" t="n">
         <v>5</v>
@@ -7511,19 +7514,19 @@
         <v>14</v>
       </c>
       <c r="BV17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA17" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB17" s="0" t="n">
         <v>10</v>
@@ -7580,25 +7583,25 @@
         <v>3</v>
       </c>
       <c r="CT17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU17" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW17" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ17" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA17" s="0" t="n">
         <v>10</v>
@@ -7634,19 +7637,19 @@
         <v>5</v>
       </c>
       <c r="DL17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO17" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP17" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ17" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR17" s="0" t="n">
         <v>10</v>
@@ -7673,16 +7676,16 @@
         <v>1</v>
       </c>
       <c r="EB17" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED17" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF17" s="0" t="n">
         <v>100</v>
@@ -7709,15 +7712,15 @@
         <v>1</v>
       </c>
       <c r="EO17" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -7730,7 +7733,7 @@
         <v>hzb_TestP_AA_2_c-8</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.16</v>
@@ -7742,22 +7745,22 @@
         <v>1</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>100</v>
@@ -7766,7 +7769,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>10</v>
@@ -7775,7 +7778,7 @@
         <v>100</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>20</v>
@@ -7784,16 +7787,16 @@
         <v>50</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC18" s="0" t="n">
         <v>1</v>
@@ -7802,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>2</v>
@@ -7835,7 +7838,7 @@
         <v>10</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ18" s="0" t="n">
         <v>10</v>
@@ -7856,40 +7859,40 @@
         <v>100</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA18" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BE18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BG18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH18" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI18" s="0" t="n">
         <v>10</v>
@@ -7898,10 +7901,10 @@
         <v>1</v>
       </c>
       <c r="BK18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL18" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM18" s="0" t="n">
         <v>5</v>
@@ -7931,19 +7934,19 @@
         <v>14</v>
       </c>
       <c r="BV18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BX18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BZ18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CA18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CB18" s="0" t="n">
         <v>10</v>
@@ -8000,25 +8003,25 @@
         <v>3</v>
       </c>
       <c r="CT18" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CW18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CX18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CY18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DA18" s="0" t="n">
         <v>10</v>
@@ -8054,19 +8057,19 @@
         <v>5</v>
       </c>
       <c r="DL18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DN18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DO18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DP18" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ18" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DR18" s="0" t="n">
         <v>10</v>
@@ -8093,16 +8096,16 @@
         <v>1</v>
       </c>
       <c r="EB18" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EC18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="ED18" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EE18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EF18" s="0" t="n">
         <v>100</v>
@@ -8129,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="EO18" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="156">
   <si>
     <t xml:space="preserve">Experiment Info</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rate [angstrom/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate target [angstrom/s]</t>
   </si>
   <si>
     <t xml:space="preserve">Tooling factor</t>
@@ -572,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,6 +586,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -662,10 +669,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:EP18"/>
+  <dimension ref="A1:EQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DZ4" activeCellId="0" sqref="DZ4:DZ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,23 +795,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="126" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="130" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,10 +962,10 @@
       <c r="DY1" s="1"/>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
-      <c r="EB1" s="1" t="s">
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
       <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
@@ -970,10 +977,11 @@
       <c r="EL1" s="1"/>
       <c r="EM1" s="1"/>
       <c r="EN1" s="1"/>
-      <c r="EO1" s="1" t="s">
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -1367,25 +1375,25 @@
         <v>109</v>
       </c>
       <c r="EA2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EB2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EB2" s="2" t="s">
+      <c r="EC2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="EC2" s="2" t="s">
+      <c r="ED2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="ED2" s="2" t="s">
+      <c r="EE2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="EE2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="EF2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="EG2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="EH2" s="2" t="s">
         <v>112</v>
@@ -1400,27 +1408,30 @@
         <v>115</v>
       </c>
       <c r="EL2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="EM2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="EM2" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="EN2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="EO2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EO2" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="EP2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1433,7 +1444,7 @@
         <v>hzb_TestP_AA_1_c-1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.16</v>
@@ -1445,22 +1456,22 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>100</v>
@@ -1469,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>10</v>
@@ -1478,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1487,16 +1498,16 @@
         <v>50</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>1</v>
@@ -1505,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>2</v>
@@ -1538,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ3" s="0" t="n">
         <v>10</v>
@@ -1559,40 +1570,40 @@
         <v>100</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI3" s="0" t="n">
         <v>10</v>
@@ -1601,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM3" s="0" t="n">
         <v>5</v>
@@ -1634,19 +1645,19 @@
         <v>14</v>
       </c>
       <c r="BV3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB3" s="0" t="n">
         <v>10</v>
@@ -1703,25 +1714,25 @@
         <v>3</v>
       </c>
       <c r="CT3" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU3" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW3" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ3" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA3" s="0" t="n">
         <v>10</v>
@@ -1757,19 +1768,19 @@
         <v>5</v>
       </c>
       <c r="DL3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP3" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ3" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR3" s="0" t="n">
         <v>10</v>
@@ -1793,54 +1804,57 @@
         <v>10</v>
       </c>
       <c r="DY3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ3" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC3" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED3" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE3" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF3" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF3" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG3" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH3" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI3" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK3" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL3" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP3" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1853,7 +1867,7 @@
         <v>hzb_TestP_AA_1_c-2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.16</v>
@@ -1865,22 +1879,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>100</v>
@@ -1889,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>10</v>
@@ -1898,7 +1912,7 @@
         <v>100</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>20</v>
@@ -1907,16 +1921,16 @@
         <v>50</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>1</v>
@@ -1925,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>2</v>
@@ -1958,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>10</v>
@@ -1979,40 +1993,40 @@
         <v>100</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI4" s="0" t="n">
         <v>10</v>
@@ -2021,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM4" s="0" t="n">
         <v>5</v>
@@ -2054,19 +2068,19 @@
         <v>14</v>
       </c>
       <c r="BV4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB4" s="0" t="n">
         <v>10</v>
@@ -2123,25 +2137,25 @@
         <v>3</v>
       </c>
       <c r="CT4" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU4" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW4" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ4" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA4" s="0" t="n">
         <v>10</v>
@@ -2177,19 +2191,19 @@
         <v>5</v>
       </c>
       <c r="DL4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO4" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP4" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ4" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR4" s="0" t="n">
         <v>10</v>
@@ -2213,54 +2227,57 @@
         <v>10</v>
       </c>
       <c r="DY4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ4" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC4" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED4" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE4" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF4" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF4" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG4" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI4" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK4" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK4" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL4" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -2273,7 +2290,7 @@
         <v>hzb_TestP_AA_1_c-3</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.16</v>
@@ -2285,22 +2302,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>100</v>
@@ -2309,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>10</v>
@@ -2318,7 +2335,7 @@
         <v>100</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>20</v>
@@ -2327,16 +2344,16 @@
         <v>50</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>1</v>
@@ -2345,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2</v>
@@ -2378,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>10</v>
@@ -2399,40 +2416,40 @@
         <v>100</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI5" s="0" t="n">
         <v>10</v>
@@ -2441,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM5" s="0" t="n">
         <v>5</v>
@@ -2474,19 +2491,19 @@
         <v>14</v>
       </c>
       <c r="BV5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB5" s="0" t="n">
         <v>10</v>
@@ -2543,25 +2560,25 @@
         <v>3</v>
       </c>
       <c r="CT5" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU5" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW5" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ5" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA5" s="0" t="n">
         <v>10</v>
@@ -2597,19 +2614,19 @@
         <v>5</v>
       </c>
       <c r="DL5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO5" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR5" s="0" t="n">
         <v>10</v>
@@ -2633,54 +2650,57 @@
         <v>10</v>
       </c>
       <c r="DY5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ5" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC5" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED5" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF5" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF5" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG5" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH5" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI5" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK5" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL5" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO5" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP5" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -2693,7 +2713,7 @@
         <v>hzb_TestP_AA_1_c-4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.16</v>
@@ -2705,22 +2725,22 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>100</v>
@@ -2729,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>10</v>
@@ -2738,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -2747,16 +2767,16 @@
         <v>50</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>1</v>
@@ -2765,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>2</v>
@@ -2798,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ6" s="0" t="n">
         <v>10</v>
@@ -2819,40 +2839,40 @@
         <v>100</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI6" s="0" t="n">
         <v>10</v>
@@ -2861,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM6" s="0" t="n">
         <v>5</v>
@@ -2894,19 +2914,19 @@
         <v>14</v>
       </c>
       <c r="BV6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB6" s="0" t="n">
         <v>10</v>
@@ -2963,25 +2983,25 @@
         <v>3</v>
       </c>
       <c r="CT6" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU6" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ6" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA6" s="0" t="n">
         <v>10</v>
@@ -3017,19 +3037,19 @@
         <v>5</v>
       </c>
       <c r="DL6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO6" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP6" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ6" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR6" s="0" t="n">
         <v>10</v>
@@ -3053,54 +3073,57 @@
         <v>10</v>
       </c>
       <c r="DY6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ6" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC6" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED6" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE6" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF6" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF6" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG6" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH6" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI6" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK6" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL6" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO6" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -3113,7 +3136,7 @@
         <v>hzb_TestP_AA_1_c-5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.16</v>
@@ -3125,22 +3148,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>100</v>
@@ -3149,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>10</v>
@@ -3158,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -3167,16 +3190,16 @@
         <v>50</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC7" s="0" t="n">
         <v>1</v>
@@ -3185,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>2</v>
@@ -3218,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>10</v>
@@ -3239,40 +3262,40 @@
         <v>100</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI7" s="0" t="n">
         <v>10</v>
@@ -3281,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM7" s="0" t="n">
         <v>5</v>
@@ -3314,19 +3337,19 @@
         <v>14</v>
       </c>
       <c r="BV7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB7" s="0" t="n">
         <v>10</v>
@@ -3383,25 +3406,25 @@
         <v>3</v>
       </c>
       <c r="CT7" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU7" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW7" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ7" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA7" s="0" t="n">
         <v>10</v>
@@ -3437,19 +3460,19 @@
         <v>5</v>
       </c>
       <c r="DL7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP7" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR7" s="0" t="n">
         <v>10</v>
@@ -3473,54 +3496,57 @@
         <v>10</v>
       </c>
       <c r="DY7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB7" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ7" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC7" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED7" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE7" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF7" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF7" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG7" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI7" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK7" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL7" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO7" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -3533,7 +3559,7 @@
         <v>hzb_TestP_AA_1_c-6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.16</v>
@@ -3545,22 +3571,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>100</v>
@@ -3569,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>10</v>
@@ -3578,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -3587,16 +3613,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
@@ -3605,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>2</v>
@@ -3638,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ8" s="0" t="n">
         <v>10</v>
@@ -3659,40 +3685,40 @@
         <v>100</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD8" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI8" s="0" t="n">
         <v>10</v>
@@ -3701,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="BK8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM8" s="0" t="n">
         <v>5</v>
@@ -3734,19 +3760,19 @@
         <v>14</v>
       </c>
       <c r="BV8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ8" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB8" s="0" t="n">
         <v>10</v>
@@ -3803,25 +3829,25 @@
         <v>3</v>
       </c>
       <c r="CT8" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU8" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW8" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ8" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA8" s="0" t="n">
         <v>10</v>
@@ -3857,19 +3883,19 @@
         <v>5</v>
       </c>
       <c r="DL8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP8" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ8" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR8" s="0" t="n">
         <v>10</v>
@@ -3893,54 +3919,57 @@
         <v>10</v>
       </c>
       <c r="DY8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB8" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ8" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC8" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED8" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE8" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF8" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF8" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG8" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH8" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI8" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK8" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL8" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO8" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP8" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -3953,7 +3982,7 @@
         <v>hzb_TestP_AA_1_c-7</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.16</v>
@@ -3965,22 +3994,22 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>100</v>
@@ -3989,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>10</v>
@@ -3998,7 +4027,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
@@ -4007,16 +4036,16 @@
         <v>50</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>1</v>
@@ -4025,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>2</v>
@@ -4058,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>10</v>
@@ -4079,40 +4108,40 @@
         <v>100</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI9" s="0" t="n">
         <v>10</v>
@@ -4121,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM9" s="0" t="n">
         <v>5</v>
@@ -4154,19 +4183,19 @@
         <v>14</v>
       </c>
       <c r="BV9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ9" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB9" s="0" t="n">
         <v>10</v>
@@ -4223,25 +4252,25 @@
         <v>3</v>
       </c>
       <c r="CT9" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU9" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW9" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ9" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA9" s="0" t="n">
         <v>10</v>
@@ -4277,19 +4306,19 @@
         <v>5</v>
       </c>
       <c r="DL9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO9" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP9" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ9" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR9" s="0" t="n">
         <v>10</v>
@@ -4313,54 +4342,57 @@
         <v>10</v>
       </c>
       <c r="DY9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ9" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC9" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED9" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE9" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF9" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF9" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG9" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH9" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI9" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK9" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK9" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL9" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO9" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP9" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4373,7 +4405,7 @@
         <v>hzb_TestP_AA_1_c-8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.16</v>
@@ -4385,22 +4417,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>100</v>
@@ -4409,7 +4441,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>10</v>
@@ -4418,7 +4450,7 @@
         <v>100</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -4427,16 +4459,16 @@
         <v>50</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC10" s="0" t="n">
         <v>1</v>
@@ -4445,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>2</v>
@@ -4478,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ10" s="0" t="n">
         <v>10</v>
@@ -4499,40 +4531,40 @@
         <v>100</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI10" s="0" t="n">
         <v>10</v>
@@ -4541,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM10" s="0" t="n">
         <v>5</v>
@@ -4574,19 +4606,19 @@
         <v>14</v>
       </c>
       <c r="BV10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ10" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB10" s="0" t="n">
         <v>10</v>
@@ -4643,25 +4675,25 @@
         <v>3</v>
       </c>
       <c r="CT10" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU10" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW10" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ10" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA10" s="0" t="n">
         <v>10</v>
@@ -4697,19 +4729,19 @@
         <v>5</v>
       </c>
       <c r="DL10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO10" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP10" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ10" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR10" s="0" t="n">
         <v>10</v>
@@ -4733,54 +4765,57 @@
         <v>10</v>
       </c>
       <c r="DY10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB10" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ10" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC10" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED10" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE10" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF10" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF10" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG10" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI10" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK10" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL10" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO10" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP10" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4793,7 +4828,7 @@
         <v>hzb_TestP_AA_2_c-1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.16</v>
@@ -4805,22 +4840,22 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>100</v>
@@ -4829,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>10</v>
@@ -4838,7 +4873,7 @@
         <v>100</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
@@ -4847,16 +4882,16 @@
         <v>50</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>1</v>
@@ -4865,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>2</v>
@@ -4898,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ11" s="0" t="n">
         <v>10</v>
@@ -4919,40 +4954,40 @@
         <v>100</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD11" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI11" s="0" t="n">
         <v>10</v>
@@ -4961,10 +4996,10 @@
         <v>1</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM11" s="0" t="n">
         <v>5</v>
@@ -4994,19 +5029,19 @@
         <v>14</v>
       </c>
       <c r="BV11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB11" s="0" t="n">
         <v>10</v>
@@ -5063,25 +5098,25 @@
         <v>3</v>
       </c>
       <c r="CT11" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU11" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW11" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ11" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA11" s="0" t="n">
         <v>10</v>
@@ -5117,19 +5152,19 @@
         <v>5</v>
       </c>
       <c r="DL11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO11" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP11" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ11" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR11" s="0" t="n">
         <v>10</v>
@@ -5153,54 +5188,57 @@
         <v>10</v>
       </c>
       <c r="DY11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB11" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ11" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC11" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED11" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE11" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF11" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF11" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG11" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH11" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI11" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK11" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL11" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -5213,7 +5251,7 @@
         <v>hzb_TestP_AA_2_c-2</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.16</v>
@@ -5225,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>100</v>
@@ -5249,7 +5287,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>10</v>
@@ -5258,7 +5296,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
@@ -5267,16 +5305,16 @@
         <v>50</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC12" s="0" t="n">
         <v>1</v>
@@ -5285,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>2</v>
@@ -5318,7 +5356,7 @@
         <v>10</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ12" s="0" t="n">
         <v>10</v>
@@ -5339,40 +5377,40 @@
         <v>100</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI12" s="0" t="n">
         <v>10</v>
@@ -5381,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="BK12" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM12" s="0" t="n">
         <v>5</v>
@@ -5414,19 +5452,19 @@
         <v>14</v>
       </c>
       <c r="BV12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB12" s="0" t="n">
         <v>10</v>
@@ -5483,25 +5521,25 @@
         <v>3</v>
       </c>
       <c r="CT12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU12" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW12" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ12" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA12" s="0" t="n">
         <v>10</v>
@@ -5537,19 +5575,19 @@
         <v>5</v>
       </c>
       <c r="DL12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO12" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP12" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ12" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR12" s="0" t="n">
         <v>10</v>
@@ -5573,54 +5611,57 @@
         <v>10</v>
       </c>
       <c r="DY12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB12" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ12" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC12" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED12" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE12" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF12" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF12" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG12" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH12" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI12" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK12" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK12" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL12" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO12" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP12" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -5633,7 +5674,7 @@
         <v>hzb_TestP_AA_2_c-3</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.16</v>
@@ -5645,22 +5686,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>100</v>
@@ -5669,7 +5710,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>10</v>
@@ -5678,7 +5719,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>20</v>
@@ -5687,16 +5728,16 @@
         <v>50</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>1</v>
@@ -5705,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>2</v>
@@ -5738,7 +5779,7 @@
         <v>10</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>10</v>
@@ -5759,40 +5800,40 @@
         <v>100</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI13" s="0" t="n">
         <v>10</v>
@@ -5801,10 +5842,10 @@
         <v>1</v>
       </c>
       <c r="BK13" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM13" s="0" t="n">
         <v>5</v>
@@ -5834,19 +5875,19 @@
         <v>14</v>
       </c>
       <c r="BV13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ13" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB13" s="0" t="n">
         <v>10</v>
@@ -5903,25 +5944,25 @@
         <v>3</v>
       </c>
       <c r="CT13" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW13" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ13" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA13" s="0" t="n">
         <v>10</v>
@@ -5957,19 +5998,19 @@
         <v>5</v>
       </c>
       <c r="DL13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO13" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP13" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ13" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR13" s="0" t="n">
         <v>10</v>
@@ -5993,54 +6034,57 @@
         <v>10</v>
       </c>
       <c r="DY13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB13" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ13" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC13" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED13" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE13" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF13" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF13" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG13" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH13" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI13" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK13" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK13" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL13" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO13" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP13" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -6053,7 +6097,7 @@
         <v>hzb_TestP_AA_2_c-4</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.16</v>
@@ -6065,22 +6109,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>100</v>
@@ -6089,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>10</v>
@@ -6098,7 +6142,7 @@
         <v>100</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>20</v>
@@ -6107,16 +6151,16 @@
         <v>50</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>1</v>
@@ -6125,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>2</v>
@@ -6158,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ14" s="0" t="n">
         <v>10</v>
@@ -6179,40 +6223,40 @@
         <v>100</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD14" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI14" s="0" t="n">
         <v>10</v>
@@ -6221,10 +6265,10 @@
         <v>1</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM14" s="0" t="n">
         <v>5</v>
@@ -6254,19 +6298,19 @@
         <v>14</v>
       </c>
       <c r="BV14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB14" s="0" t="n">
         <v>10</v>
@@ -6323,25 +6367,25 @@
         <v>3</v>
       </c>
       <c r="CT14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW14" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ14" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA14" s="0" t="n">
         <v>10</v>
@@ -6377,19 +6421,19 @@
         <v>5</v>
       </c>
       <c r="DL14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO14" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP14" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ14" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR14" s="0" t="n">
         <v>10</v>
@@ -6413,54 +6457,57 @@
         <v>10</v>
       </c>
       <c r="DY14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB14" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ14" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC14" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED14" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE14" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF14" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF14" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG14" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH14" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI14" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK14" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL14" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO14" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP14" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -6473,7 +6520,7 @@
         <v>hzb_TestP_AA_2_c-5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.16</v>
@@ -6485,22 +6532,22 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>100</v>
@@ -6509,7 +6556,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>10</v>
@@ -6518,7 +6565,7 @@
         <v>100</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>20</v>
@@ -6527,16 +6574,16 @@
         <v>50</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC15" s="0" t="n">
         <v>1</v>
@@ -6545,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>2</v>
@@ -6578,7 +6625,7 @@
         <v>10</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ15" s="0" t="n">
         <v>10</v>
@@ -6599,40 +6646,40 @@
         <v>100</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI15" s="0" t="n">
         <v>10</v>
@@ -6641,10 +6688,10 @@
         <v>1</v>
       </c>
       <c r="BK15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM15" s="0" t="n">
         <v>5</v>
@@ -6674,19 +6721,19 @@
         <v>14</v>
       </c>
       <c r="BV15" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY15" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ15" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA15" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB15" s="0" t="n">
         <v>10</v>
@@ -6743,25 +6790,25 @@
         <v>3</v>
       </c>
       <c r="CT15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU15" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW15" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ15" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA15" s="0" t="n">
         <v>10</v>
@@ -6797,19 +6844,19 @@
         <v>5</v>
       </c>
       <c r="DL15" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO15" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP15" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ15" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR15" s="0" t="n">
         <v>10</v>
@@ -6833,54 +6880,57 @@
         <v>10</v>
       </c>
       <c r="DY15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB15" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ15" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC15" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED15" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE15" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF15" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF15" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG15" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH15" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI15" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK15" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL15" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO15" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP15" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -6893,7 +6943,7 @@
         <v>hzb_TestP_AA_2_c-6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.16</v>
@@ -6905,22 +6955,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>100</v>
@@ -6929,7 +6979,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>10</v>
@@ -6938,7 +6988,7 @@
         <v>100</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -6947,16 +6997,16 @@
         <v>50</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC16" s="0" t="n">
         <v>1</v>
@@ -6965,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>2</v>
@@ -6998,7 +7048,7 @@
         <v>10</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ16" s="0" t="n">
         <v>10</v>
@@ -7019,40 +7069,40 @@
         <v>100</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI16" s="0" t="n">
         <v>10</v>
@@ -7061,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM16" s="0" t="n">
         <v>5</v>
@@ -7094,19 +7144,19 @@
         <v>14</v>
       </c>
       <c r="BV16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY16" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ16" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA16" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB16" s="0" t="n">
         <v>10</v>
@@ -7163,25 +7213,25 @@
         <v>3</v>
       </c>
       <c r="CT16" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU16" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ16" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA16" s="0" t="n">
         <v>10</v>
@@ -7217,19 +7267,19 @@
         <v>5</v>
       </c>
       <c r="DL16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ16" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR16" s="0" t="n">
         <v>10</v>
@@ -7253,54 +7303,57 @@
         <v>10</v>
       </c>
       <c r="DY16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB16" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ16" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC16" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED16" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE16" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF16" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF16" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG16" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH16" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI16" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK16" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL16" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO16" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP16" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -7313,7 +7366,7 @@
         <v>hzb_TestP_AA_2_c-7</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.16</v>
@@ -7325,22 +7378,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>100</v>
@@ -7349,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>10</v>
@@ -7358,7 +7411,7 @@
         <v>100</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>20</v>
@@ -7367,16 +7420,16 @@
         <v>50</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>1</v>
@@ -7385,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>2</v>
@@ -7418,7 +7471,7 @@
         <v>10</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ17" s="0" t="n">
         <v>10</v>
@@ -7439,40 +7492,40 @@
         <v>100</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI17" s="0" t="n">
         <v>10</v>
@@ -7481,10 +7534,10 @@
         <v>1</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM17" s="0" t="n">
         <v>5</v>
@@ -7514,19 +7567,19 @@
         <v>14</v>
       </c>
       <c r="BV17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ17" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB17" s="0" t="n">
         <v>10</v>
@@ -7583,25 +7636,25 @@
         <v>3</v>
       </c>
       <c r="CT17" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU17" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW17" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ17" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA17" s="0" t="n">
         <v>10</v>
@@ -7637,19 +7690,19 @@
         <v>5</v>
       </c>
       <c r="DL17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO17" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP17" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ17" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR17" s="0" t="n">
         <v>10</v>
@@ -7673,54 +7726,57 @@
         <v>10</v>
       </c>
       <c r="DY17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB17" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ17" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC17" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED17" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE17" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF17" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF17" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG17" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI17" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK17" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK17" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL17" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO17" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP17" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -7733,7 +7789,7 @@
         <v>hzb_TestP_AA_2_c-8</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.16</v>
@@ -7745,22 +7801,22 @@
         <v>1</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>100</v>
@@ -7769,7 +7825,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>10</v>
@@ -7778,7 +7834,7 @@
         <v>100</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>20</v>
@@ -7787,16 +7843,16 @@
         <v>50</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC18" s="0" t="n">
         <v>1</v>
@@ -7805,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>2</v>
@@ -7838,7 +7894,7 @@
         <v>10</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ18" s="0" t="n">
         <v>10</v>
@@ -7859,40 +7915,40 @@
         <v>100</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD18" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI18" s="0" t="n">
         <v>10</v>
@@ -7901,10 +7957,10 @@
         <v>1</v>
       </c>
       <c r="BK18" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM18" s="0" t="n">
         <v>5</v>
@@ -7934,19 +7990,19 @@
         <v>14</v>
       </c>
       <c r="BV18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA18" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB18" s="0" t="n">
         <v>10</v>
@@ -8003,25 +8059,25 @@
         <v>3</v>
       </c>
       <c r="CT18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV18" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA18" s="0" t="n">
         <v>10</v>
@@ -8057,19 +8113,19 @@
         <v>5</v>
       </c>
       <c r="DL18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO18" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP18" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ18" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR18" s="0" t="n">
         <v>10</v>
@@ -8093,47 +8149,53 @@
         <v>10</v>
       </c>
       <c r="DY18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB18" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ18" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC18" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED18" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF18" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF18" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG18" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH18" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI18" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK18" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK18" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL18" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO18" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="EN18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP18" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8144,9 +8206,9 @@
     <mergeCell ref="BX1:CM1"/>
     <mergeCell ref="CN1:CT1"/>
     <mergeCell ref="CU1:DM1"/>
-    <mergeCell ref="DN1:EA1"/>
-    <mergeCell ref="EB1:EN1"/>
-    <mergeCell ref="EO1:EP1"/>
+    <mergeCell ref="DN1:EB1"/>
+    <mergeCell ref="EC1:EO1"/>
+    <mergeCell ref="EP1:EQ1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -346,7 +346,7 @@
     <t xml:space="preserve">Substrate temperature [°C]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rate [angstrom/s]</t>
+    <t xml:space="preserve">Rate start [angstrom/s]</t>
   </si>
   <si>
     <t xml:space="preserve">Rate target [angstrom/s]</t>
@@ -672,7 +672,7 @@
   <dimension ref="A1:EQ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DZ4" activeCellId="0" sqref="DZ4:DZ18"/>
+      <selection pane="topLeft" activeCell="DY2" activeCellId="0" sqref="DY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="156">
   <si>
     <t xml:space="preserve">Experiment Info</t>
   </si>
@@ -346,7 +346,10 @@
     <t xml:space="preserve">Substrate temperature [°C]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rate [angstrom/s]</t>
+    <t xml:space="preserve">Rate start [angstrom/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate target [angstrom/s]</t>
   </si>
   <si>
     <t xml:space="preserve">Tooling factor</t>
@@ -572,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,6 +586,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -662,10 +669,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:EP18"/>
+  <dimension ref="A1:EQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DY2" activeCellId="0" sqref="DY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,23 +795,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="126" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="130" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,10 +962,10 @@
       <c r="DY1" s="1"/>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
-      <c r="EB1" s="1" t="s">
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
       <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
@@ -970,10 +977,11 @@
       <c r="EL1" s="1"/>
       <c r="EM1" s="1"/>
       <c r="EN1" s="1"/>
-      <c r="EO1" s="1" t="s">
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -1367,25 +1375,25 @@
         <v>109</v>
       </c>
       <c r="EA2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EB2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EB2" s="2" t="s">
+      <c r="EC2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="EC2" s="2" t="s">
+      <c r="ED2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="ED2" s="2" t="s">
+      <c r="EE2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="EE2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="EF2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="EG2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="EH2" s="2" t="s">
         <v>112</v>
@@ -1400,27 +1408,30 @@
         <v>115</v>
       </c>
       <c r="EL2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="EM2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="EM2" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="EN2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="EO2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EO2" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="EP2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1433,7 +1444,7 @@
         <v>hzb_TestP_AA_1_c-1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.16</v>
@@ -1445,22 +1456,22 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>100</v>
@@ -1469,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>10</v>
@@ -1478,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1487,16 +1498,16 @@
         <v>50</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>1</v>
@@ -1505,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>2</v>
@@ -1538,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ3" s="0" t="n">
         <v>10</v>
@@ -1559,40 +1570,40 @@
         <v>100</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI3" s="0" t="n">
         <v>10</v>
@@ -1601,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL3" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM3" s="0" t="n">
         <v>5</v>
@@ -1634,19 +1645,19 @@
         <v>14</v>
       </c>
       <c r="BV3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB3" s="0" t="n">
         <v>10</v>
@@ -1703,25 +1714,25 @@
         <v>3</v>
       </c>
       <c r="CT3" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU3" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW3" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ3" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA3" s="0" t="n">
         <v>10</v>
@@ -1757,19 +1768,19 @@
         <v>5</v>
       </c>
       <c r="DL3" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP3" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ3" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR3" s="0" t="n">
         <v>10</v>
@@ -1793,54 +1804,57 @@
         <v>10</v>
       </c>
       <c r="DY3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ3" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC3" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED3" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE3" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF3" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF3" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG3" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH3" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI3" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK3" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL3" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP3" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1853,7 +1867,7 @@
         <v>hzb_TestP_AA_1_c-2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.16</v>
@@ -1865,22 +1879,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>100</v>
@@ -1889,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>10</v>
@@ -1898,7 +1912,7 @@
         <v>100</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>20</v>
@@ -1907,16 +1921,16 @@
         <v>50</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>1</v>
@@ -1925,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>2</v>
@@ -1958,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>10</v>
@@ -1979,40 +1993,40 @@
         <v>100</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI4" s="0" t="n">
         <v>10</v>
@@ -2021,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM4" s="0" t="n">
         <v>5</v>
@@ -2054,19 +2068,19 @@
         <v>14</v>
       </c>
       <c r="BV4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB4" s="0" t="n">
         <v>10</v>
@@ -2123,25 +2137,25 @@
         <v>3</v>
       </c>
       <c r="CT4" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU4" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW4" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX4" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ4" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA4" s="0" t="n">
         <v>10</v>
@@ -2177,19 +2191,19 @@
         <v>5</v>
       </c>
       <c r="DL4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO4" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP4" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ4" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR4" s="0" t="n">
         <v>10</v>
@@ -2213,54 +2227,57 @@
         <v>10</v>
       </c>
       <c r="DY4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ4" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC4" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED4" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE4" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF4" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF4" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG4" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI4" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK4" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK4" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL4" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -2273,7 +2290,7 @@
         <v>hzb_TestP_AA_1_c-3</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.16</v>
@@ -2285,22 +2302,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>100</v>
@@ -2309,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>10</v>
@@ -2318,7 +2335,7 @@
         <v>100</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>20</v>
@@ -2327,16 +2344,16 @@
         <v>50</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>1</v>
@@ -2345,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2</v>
@@ -2378,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>10</v>
@@ -2399,40 +2416,40 @@
         <v>100</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI5" s="0" t="n">
         <v>10</v>
@@ -2441,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM5" s="0" t="n">
         <v>5</v>
@@ -2474,19 +2491,19 @@
         <v>14</v>
       </c>
       <c r="BV5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB5" s="0" t="n">
         <v>10</v>
@@ -2543,25 +2560,25 @@
         <v>3</v>
       </c>
       <c r="CT5" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU5" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW5" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ5" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA5" s="0" t="n">
         <v>10</v>
@@ -2597,19 +2614,19 @@
         <v>5</v>
       </c>
       <c r="DL5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO5" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR5" s="0" t="n">
         <v>10</v>
@@ -2633,54 +2650,57 @@
         <v>10</v>
       </c>
       <c r="DY5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ5" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC5" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED5" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF5" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF5" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG5" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH5" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI5" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK5" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL5" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO5" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP5" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -2693,7 +2713,7 @@
         <v>hzb_TestP_AA_1_c-4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.16</v>
@@ -2705,22 +2725,22 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>100</v>
@@ -2729,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>10</v>
@@ -2738,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -2747,16 +2767,16 @@
         <v>50</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>1</v>
@@ -2765,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>2</v>
@@ -2798,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ6" s="0" t="n">
         <v>10</v>
@@ -2819,40 +2839,40 @@
         <v>100</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI6" s="0" t="n">
         <v>10</v>
@@ -2861,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM6" s="0" t="n">
         <v>5</v>
@@ -2894,19 +2914,19 @@
         <v>14</v>
       </c>
       <c r="BV6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB6" s="0" t="n">
         <v>10</v>
@@ -2963,25 +2983,25 @@
         <v>3</v>
       </c>
       <c r="CT6" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU6" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ6" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA6" s="0" t="n">
         <v>10</v>
@@ -3017,19 +3037,19 @@
         <v>5</v>
       </c>
       <c r="DL6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO6" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP6" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ6" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR6" s="0" t="n">
         <v>10</v>
@@ -3053,54 +3073,57 @@
         <v>10</v>
       </c>
       <c r="DY6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ6" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC6" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED6" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE6" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF6" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF6" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG6" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH6" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI6" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK6" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL6" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO6" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -3113,7 +3136,7 @@
         <v>hzb_TestP_AA_1_c-5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.16</v>
@@ -3125,22 +3148,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>100</v>
@@ -3149,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>10</v>
@@ -3158,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -3167,16 +3190,16 @@
         <v>50</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC7" s="0" t="n">
         <v>1</v>
@@ -3185,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>2</v>
@@ -3218,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>10</v>
@@ -3239,40 +3262,40 @@
         <v>100</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI7" s="0" t="n">
         <v>10</v>
@@ -3281,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM7" s="0" t="n">
         <v>5</v>
@@ -3314,19 +3337,19 @@
         <v>14</v>
       </c>
       <c r="BV7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB7" s="0" t="n">
         <v>10</v>
@@ -3383,25 +3406,25 @@
         <v>3</v>
       </c>
       <c r="CT7" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU7" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW7" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ7" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA7" s="0" t="n">
         <v>10</v>
@@ -3437,19 +3460,19 @@
         <v>5</v>
       </c>
       <c r="DL7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN7" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP7" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ7" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR7" s="0" t="n">
         <v>10</v>
@@ -3473,54 +3496,57 @@
         <v>10</v>
       </c>
       <c r="DY7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB7" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ7" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC7" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED7" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE7" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF7" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF7" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG7" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI7" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK7" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL7" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO7" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -3533,7 +3559,7 @@
         <v>hzb_TestP_AA_1_c-6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.16</v>
@@ -3545,22 +3571,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>100</v>
@@ -3569,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>10</v>
@@ -3578,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -3587,16 +3613,16 @@
         <v>50</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
@@ -3605,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>2</v>
@@ -3638,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ8" s="0" t="n">
         <v>10</v>
@@ -3659,40 +3685,40 @@
         <v>100</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD8" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI8" s="0" t="n">
         <v>10</v>
@@ -3701,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="BK8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM8" s="0" t="n">
         <v>5</v>
@@ -3734,19 +3760,19 @@
         <v>14</v>
       </c>
       <c r="BV8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ8" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB8" s="0" t="n">
         <v>10</v>
@@ -3803,25 +3829,25 @@
         <v>3</v>
       </c>
       <c r="CT8" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU8" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV8" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW8" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX8" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ8" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA8" s="0" t="n">
         <v>10</v>
@@ -3857,19 +3883,19 @@
         <v>5</v>
       </c>
       <c r="DL8" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP8" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ8" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR8" s="0" t="n">
         <v>10</v>
@@ -3893,54 +3919,57 @@
         <v>10</v>
       </c>
       <c r="DY8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB8" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ8" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC8" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED8" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE8" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF8" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF8" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG8" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH8" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI8" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK8" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL8" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO8" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP8" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -3953,7 +3982,7 @@
         <v>hzb_TestP_AA_1_c-7</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.16</v>
@@ -3965,22 +3994,22 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>100</v>
@@ -3989,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>10</v>
@@ -3998,7 +4027,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
@@ -4007,16 +4036,16 @@
         <v>50</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>1</v>
@@ -4025,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>2</v>
@@ -4058,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>10</v>
@@ -4079,40 +4108,40 @@
         <v>100</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI9" s="0" t="n">
         <v>10</v>
@@ -4121,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM9" s="0" t="n">
         <v>5</v>
@@ -4154,19 +4183,19 @@
         <v>14</v>
       </c>
       <c r="BV9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ9" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB9" s="0" t="n">
         <v>10</v>
@@ -4223,25 +4252,25 @@
         <v>3</v>
       </c>
       <c r="CT9" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU9" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW9" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ9" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA9" s="0" t="n">
         <v>10</v>
@@ -4277,19 +4306,19 @@
         <v>5</v>
       </c>
       <c r="DL9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO9" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP9" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ9" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR9" s="0" t="n">
         <v>10</v>
@@ -4313,54 +4342,57 @@
         <v>10</v>
       </c>
       <c r="DY9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ9" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC9" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED9" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE9" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF9" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF9" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG9" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH9" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI9" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK9" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK9" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL9" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO9" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP9" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4373,7 +4405,7 @@
         <v>hzb_TestP_AA_1_c-8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.16</v>
@@ -4385,22 +4417,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>100</v>
@@ -4409,7 +4441,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>10</v>
@@ -4418,7 +4450,7 @@
         <v>100</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -4427,16 +4459,16 @@
         <v>50</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC10" s="0" t="n">
         <v>1</v>
@@ -4445,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>2</v>
@@ -4478,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ10" s="0" t="n">
         <v>10</v>
@@ -4499,40 +4531,40 @@
         <v>100</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI10" s="0" t="n">
         <v>10</v>
@@ -4541,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM10" s="0" t="n">
         <v>5</v>
@@ -4574,19 +4606,19 @@
         <v>14</v>
       </c>
       <c r="BV10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ10" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB10" s="0" t="n">
         <v>10</v>
@@ -4643,25 +4675,25 @@
         <v>3</v>
       </c>
       <c r="CT10" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU10" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW10" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ10" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA10" s="0" t="n">
         <v>10</v>
@@ -4697,19 +4729,19 @@
         <v>5</v>
       </c>
       <c r="DL10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO10" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP10" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ10" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR10" s="0" t="n">
         <v>10</v>
@@ -4733,54 +4765,57 @@
         <v>10</v>
       </c>
       <c r="DY10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB10" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ10" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC10" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED10" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE10" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF10" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF10" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG10" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH10" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI10" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK10" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL10" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO10" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP10" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4793,7 +4828,7 @@
         <v>hzb_TestP_AA_2_c-1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.16</v>
@@ -4805,22 +4840,22 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>100</v>
@@ -4829,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>10</v>
@@ -4838,7 +4873,7 @@
         <v>100</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
@@ -4847,16 +4882,16 @@
         <v>50</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>1</v>
@@ -4865,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>2</v>
@@ -4898,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ11" s="0" t="n">
         <v>10</v>
@@ -4919,40 +4954,40 @@
         <v>100</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD11" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI11" s="0" t="n">
         <v>10</v>
@@ -4961,10 +4996,10 @@
         <v>1</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM11" s="0" t="n">
         <v>5</v>
@@ -4994,19 +5029,19 @@
         <v>14</v>
       </c>
       <c r="BV11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB11" s="0" t="n">
         <v>10</v>
@@ -5063,25 +5098,25 @@
         <v>3</v>
       </c>
       <c r="CT11" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU11" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW11" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ11" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA11" s="0" t="n">
         <v>10</v>
@@ -5117,19 +5152,19 @@
         <v>5</v>
       </c>
       <c r="DL11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO11" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP11" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ11" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR11" s="0" t="n">
         <v>10</v>
@@ -5153,54 +5188,57 @@
         <v>10</v>
       </c>
       <c r="DY11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB11" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ11" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC11" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED11" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE11" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF11" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF11" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG11" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH11" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI11" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK11" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL11" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -5213,7 +5251,7 @@
         <v>hzb_TestP_AA_2_c-2</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.16</v>
@@ -5225,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>100</v>
@@ -5249,7 +5287,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>10</v>
@@ -5258,7 +5296,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
@@ -5267,16 +5305,16 @@
         <v>50</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC12" s="0" t="n">
         <v>1</v>
@@ -5285,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>2</v>
@@ -5318,7 +5356,7 @@
         <v>10</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ12" s="0" t="n">
         <v>10</v>
@@ -5339,40 +5377,40 @@
         <v>100</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI12" s="0" t="n">
         <v>10</v>
@@ -5381,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="BK12" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM12" s="0" t="n">
         <v>5</v>
@@ -5414,19 +5452,19 @@
         <v>14</v>
       </c>
       <c r="BV12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB12" s="0" t="n">
         <v>10</v>
@@ -5483,25 +5521,25 @@
         <v>3</v>
       </c>
       <c r="CT12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU12" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW12" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ12" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA12" s="0" t="n">
         <v>10</v>
@@ -5537,19 +5575,19 @@
         <v>5</v>
       </c>
       <c r="DL12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO12" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP12" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ12" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR12" s="0" t="n">
         <v>10</v>
@@ -5573,54 +5611,57 @@
         <v>10</v>
       </c>
       <c r="DY12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB12" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ12" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC12" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED12" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE12" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF12" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF12" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG12" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH12" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI12" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK12" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK12" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL12" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO12" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP12" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -5633,7 +5674,7 @@
         <v>hzb_TestP_AA_2_c-3</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.16</v>
@@ -5645,22 +5686,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>100</v>
@@ -5669,7 +5710,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>10</v>
@@ -5678,7 +5719,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>20</v>
@@ -5687,16 +5728,16 @@
         <v>50</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>1</v>
@@ -5705,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>2</v>
@@ -5738,7 +5779,7 @@
         <v>10</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>10</v>
@@ -5759,40 +5800,40 @@
         <v>100</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI13" s="0" t="n">
         <v>10</v>
@@ -5801,10 +5842,10 @@
         <v>1</v>
       </c>
       <c r="BK13" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM13" s="0" t="n">
         <v>5</v>
@@ -5834,19 +5875,19 @@
         <v>14</v>
       </c>
       <c r="BV13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ13" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB13" s="0" t="n">
         <v>10</v>
@@ -5903,25 +5944,25 @@
         <v>3</v>
       </c>
       <c r="CT13" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW13" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ13" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA13" s="0" t="n">
         <v>10</v>
@@ -5957,19 +5998,19 @@
         <v>5</v>
       </c>
       <c r="DL13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN13" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO13" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP13" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ13" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR13" s="0" t="n">
         <v>10</v>
@@ -5993,54 +6034,57 @@
         <v>10</v>
       </c>
       <c r="DY13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB13" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ13" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC13" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED13" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE13" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF13" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF13" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG13" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH13" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI13" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK13" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK13" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL13" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO13" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP13" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -6053,7 +6097,7 @@
         <v>hzb_TestP_AA_2_c-4</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.16</v>
@@ -6065,22 +6109,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>100</v>
@@ -6089,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>10</v>
@@ -6098,7 +6142,7 @@
         <v>100</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>20</v>
@@ -6107,16 +6151,16 @@
         <v>50</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>1</v>
@@ -6125,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>2</v>
@@ -6158,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ14" s="0" t="n">
         <v>10</v>
@@ -6179,40 +6223,40 @@
         <v>100</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD14" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI14" s="0" t="n">
         <v>10</v>
@@ -6221,10 +6265,10 @@
         <v>1</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM14" s="0" t="n">
         <v>5</v>
@@ -6254,19 +6298,19 @@
         <v>14</v>
       </c>
       <c r="BV14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB14" s="0" t="n">
         <v>10</v>
@@ -6323,25 +6367,25 @@
         <v>3</v>
       </c>
       <c r="CT14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW14" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ14" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA14" s="0" t="n">
         <v>10</v>
@@ -6377,19 +6421,19 @@
         <v>5</v>
       </c>
       <c r="DL14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN14" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO14" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP14" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ14" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR14" s="0" t="n">
         <v>10</v>
@@ -6413,54 +6457,57 @@
         <v>10</v>
       </c>
       <c r="DY14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB14" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ14" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC14" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED14" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE14" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF14" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF14" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG14" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH14" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI14" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK14" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL14" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO14" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP14" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -6473,7 +6520,7 @@
         <v>hzb_TestP_AA_2_c-5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.16</v>
@@ -6485,22 +6532,22 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>100</v>
@@ -6509,7 +6556,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>10</v>
@@ -6518,7 +6565,7 @@
         <v>100</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>20</v>
@@ -6527,16 +6574,16 @@
         <v>50</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC15" s="0" t="n">
         <v>1</v>
@@ -6545,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>2</v>
@@ -6578,7 +6625,7 @@
         <v>10</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ15" s="0" t="n">
         <v>10</v>
@@ -6599,40 +6646,40 @@
         <v>100</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI15" s="0" t="n">
         <v>10</v>
@@ -6641,10 +6688,10 @@
         <v>1</v>
       </c>
       <c r="BK15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM15" s="0" t="n">
         <v>5</v>
@@ -6674,19 +6721,19 @@
         <v>14</v>
       </c>
       <c r="BV15" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY15" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ15" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA15" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB15" s="0" t="n">
         <v>10</v>
@@ -6743,25 +6790,25 @@
         <v>3</v>
       </c>
       <c r="CT15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU15" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW15" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ15" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA15" s="0" t="n">
         <v>10</v>
@@ -6797,19 +6844,19 @@
         <v>5</v>
       </c>
       <c r="DL15" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO15" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP15" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ15" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR15" s="0" t="n">
         <v>10</v>
@@ -6833,54 +6880,57 @@
         <v>10</v>
       </c>
       <c r="DY15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB15" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ15" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC15" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED15" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE15" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF15" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF15" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG15" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH15" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI15" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK15" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL15" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO15" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP15" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -6893,7 +6943,7 @@
         <v>hzb_TestP_AA_2_c-6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.16</v>
@@ -6905,22 +6955,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>100</v>
@@ -6929,7 +6979,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>10</v>
@@ -6938,7 +6988,7 @@
         <v>100</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -6947,16 +6997,16 @@
         <v>50</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC16" s="0" t="n">
         <v>1</v>
@@ -6965,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>2</v>
@@ -6998,7 +7048,7 @@
         <v>10</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ16" s="0" t="n">
         <v>10</v>
@@ -7019,40 +7069,40 @@
         <v>100</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI16" s="0" t="n">
         <v>10</v>
@@ -7061,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM16" s="0" t="n">
         <v>5</v>
@@ -7094,19 +7144,19 @@
         <v>14</v>
       </c>
       <c r="BV16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY16" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ16" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA16" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB16" s="0" t="n">
         <v>10</v>
@@ -7163,25 +7213,25 @@
         <v>3</v>
       </c>
       <c r="CT16" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU16" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ16" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA16" s="0" t="n">
         <v>10</v>
@@ -7217,19 +7267,19 @@
         <v>5</v>
       </c>
       <c r="DL16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ16" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR16" s="0" t="n">
         <v>10</v>
@@ -7253,54 +7303,57 @@
         <v>10</v>
       </c>
       <c r="DY16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB16" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ16" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC16" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED16" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE16" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF16" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF16" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG16" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH16" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI16" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK16" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL16" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO16" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP16" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -7313,7 +7366,7 @@
         <v>hzb_TestP_AA_2_c-7</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.16</v>
@@ -7325,22 +7378,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>100</v>
@@ -7349,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>10</v>
@@ -7358,7 +7411,7 @@
         <v>100</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>20</v>
@@ -7367,16 +7420,16 @@
         <v>50</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>1</v>
@@ -7385,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>2</v>
@@ -7418,7 +7471,7 @@
         <v>10</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ17" s="0" t="n">
         <v>10</v>
@@ -7439,40 +7492,40 @@
         <v>100</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI17" s="0" t="n">
         <v>10</v>
@@ -7481,10 +7534,10 @@
         <v>1</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM17" s="0" t="n">
         <v>5</v>
@@ -7514,19 +7567,19 @@
         <v>14</v>
       </c>
       <c r="BV17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY17" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ17" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB17" s="0" t="n">
         <v>10</v>
@@ -7583,25 +7636,25 @@
         <v>3</v>
       </c>
       <c r="CT17" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU17" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW17" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ17" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA17" s="0" t="n">
         <v>10</v>
@@ -7637,19 +7690,19 @@
         <v>5</v>
       </c>
       <c r="DL17" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO17" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP17" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ17" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR17" s="0" t="n">
         <v>10</v>
@@ -7673,54 +7726,57 @@
         <v>10</v>
       </c>
       <c r="DY17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB17" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ17" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC17" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED17" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE17" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF17" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF17" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG17" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI17" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK17" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK17" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL17" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO17" s="0" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="EN17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP17" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -7733,7 +7789,7 @@
         <v>hzb_TestP_AA_2_c-8</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.16</v>
@@ -7745,22 +7801,22 @@
         <v>1</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>100</v>
@@ -7769,7 +7825,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>10</v>
@@ -7778,7 +7834,7 @@
         <v>100</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>20</v>
@@ -7787,16 +7843,16 @@
         <v>50</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC18" s="0" t="n">
         <v>1</v>
@@ -7805,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>2</v>
@@ -7838,7 +7894,7 @@
         <v>10</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ18" s="0" t="n">
         <v>10</v>
@@ -7859,40 +7915,40 @@
         <v>100</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD18" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BG18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BI18" s="0" t="n">
         <v>10</v>
@@ -7901,10 +7957,10 @@
         <v>1</v>
       </c>
       <c r="BK18" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM18" s="0" t="n">
         <v>5</v>
@@ -7934,19 +7990,19 @@
         <v>14</v>
       </c>
       <c r="BV18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA18" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CB18" s="0" t="n">
         <v>10</v>
@@ -8003,25 +8059,25 @@
         <v>3</v>
       </c>
       <c r="CT18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CV18" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CW18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CY18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="CZ18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DA18" s="0" t="n">
         <v>10</v>
@@ -8057,19 +8113,19 @@
         <v>5</v>
       </c>
       <c r="DL18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="DN18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="DO18" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DP18" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DQ18" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DR18" s="0" t="n">
         <v>10</v>
@@ -8093,47 +8149,53 @@
         <v>10</v>
       </c>
       <c r="DY18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB18" s="0" t="s">
-        <v>153</v>
+        <v>0.1</v>
+      </c>
+      <c r="DZ18" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="EC18" s="0" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="ED18" s="0" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="EE18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF18" s="0" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="EF18" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="EG18" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="EH18" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EI18" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="EJ18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK18" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EK18" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="EL18" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="EM18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO18" s="0" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="EN18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP18" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8144,9 +8206,9 @@
     <mergeCell ref="BX1:CM1"/>
     <mergeCell ref="CN1:CT1"/>
     <mergeCell ref="CU1:DM1"/>
-    <mergeCell ref="DN1:EA1"/>
-    <mergeCell ref="EB1:EN1"/>
-    <mergeCell ref="EO1:EP1"/>
+    <mergeCell ref="DN1:EB1"/>
+    <mergeCell ref="EC1:EO1"/>
+    <mergeCell ref="EP1:EQ1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/tests/data/20250114_experiment_file.xlsx
+++ b/tests/data/20250114_experiment_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="161">
   <si>
     <t xml:space="preserve">Experiment Info</t>
   </si>
@@ -286,6 +286,15 @@
     <t xml:space="preserve">Manifold temperature 2 [°C]</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width of cell [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead area [cm2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laser wavelength [nm]</t>
   </si>
   <si>
@@ -313,6 +322,9 @@
     <t xml:space="preserve">Head gap [mm]</t>
   </si>
   <si>
+    <t xml:space="preserve">Chuck heating temperature [°C]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Air knife angle [°]</t>
   </si>
   <si>
@@ -461,6 +473,9 @@
   </si>
   <si>
     <t xml:space="preserve">aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
   </si>
   <si>
     <t xml:space="preserve">abc.txt</t>
@@ -497,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -520,8 +535,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +560,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF77C00"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF86"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -575,7 +603,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -585,6 +613,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,7 +674,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFBF86"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -669,10 +701,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:EQ31"/>
+  <dimension ref="A1:EV31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DY2" activeCellId="0" sqref="DY2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DI2" activeCellId="0" sqref="DI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,58 +792,58 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="92" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="92" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="108" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="111" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="116" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="117" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="121" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="122" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="124" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="126" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="130" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="111" min="111" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="113" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="116" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="121" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="122" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="124" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="126" min="126" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="131" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="135" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="148" min="148" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="149" min="149" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="150" min="150" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="151" min="151" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="152" min="152" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,13 +957,13 @@
       <c r="CR1" s="1"/>
       <c r="CS1" s="1"/>
       <c r="CT1" s="1"/>
-      <c r="CU1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
       <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
+      <c r="CY1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
       <c r="DB1" s="1"/>
@@ -946,14 +978,14 @@
       <c r="DK1" s="1"/>
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
-      <c r="DN1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="DN1" s="1"/>
       <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
+      <c r="DS1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
       <c r="DV1" s="1"/>
@@ -963,14 +995,14 @@
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
-      <c r="EC1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
       <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
+      <c r="EH1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="EI1" s="1"/>
       <c r="EJ1" s="1"/>
       <c r="EK1" s="1"/>
@@ -978,10 +1010,15 @@
       <c r="EM1" s="1"/>
       <c r="EN1" s="1"/>
       <c r="EO1" s="1"/>
-      <c r="EP1" s="1" t="s">
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="EQ1" s="1"/>
+      <c r="EV1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -1257,62 +1294,62 @@
       <c r="CM2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CN2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CO2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CP2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CQ2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CZ2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="DA2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="DB2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CY2" s="2" t="s">
+      <c r="DC2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CZ2" s="2" t="s">
+      <c r="DD2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DE2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DF2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="DG2" s="2" t="s">
         <v>98</v>
@@ -1324,49 +1361,49 @@
         <v>100</v>
       </c>
       <c r="DJ2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DO2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="DK2" s="2" t="s">
+      <c r="DP2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="DL2" s="2" t="s">
+      <c r="DQ2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="DM2" s="2" t="s">
+      <c r="DR2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="DN2" s="2" t="s">
+      <c r="DS2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="DO2" s="2" t="s">
+      <c r="DT2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="DP2" s="2" t="s">
+      <c r="DU2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="DQ2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DU2" s="2" t="s">
+      <c r="DV2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DV2" s="2" t="s">
+      <c r="DW2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DW2" s="2" t="s">
+      <c r="DX2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="DY2" s="2" t="s">
         <v>108</v>
@@ -1378,60 +1415,75 @@
         <v>110</v>
       </c>
       <c r="EB2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="EG2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EC2" s="2" t="s">
+      <c r="EH2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="ED2" s="2" t="s">
+      <c r="EI2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="EE2" s="2" t="s">
+      <c r="EJ2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="EK2" s="2" t="s">
         <v>115</v>
       </c>
       <c r="EL2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="EM2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="EN2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="EO2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="ET2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="EP2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
+      <c r="EU2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="EV2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1444,7 +1496,7 @@
         <v>hzb_TestP_AA_1_c-1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.16</v>
@@ -1456,22 +1508,22 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>100</v>
@@ -1480,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>10</v>
@@ -1489,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1498,17 +1550,17 @@
         <v>50</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB3" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC3" s="0" t="n">
         <v>1</v>
       </c>
@@ -1516,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>2</v>
@@ -1549,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ3" s="0" t="n">
         <v>10</v>
@@ -1570,40 +1622,40 @@
         <v>100</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI3" s="0" t="n">
         <v>10</v>
@@ -1612,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL3" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM3" s="0" t="n">
         <v>5</v>
@@ -1645,19 +1697,19 @@
         <v>14</v>
       </c>
       <c r="BV3" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX3" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB3" s="0" t="n">
         <v>10</v>
@@ -1696,165 +1748,180 @@
         <v>3</v>
       </c>
       <c r="CN3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR3" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR3" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT3" s="0" t="s">
+      <c r="CX3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ3" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU3" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV3" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW3" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ3" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL3" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO3" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ3" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV3" s="0" t="n">
+      <c r="DS3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV3" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW3" s="0" t="n">
+      <c r="EB3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY3" s="0" t="n">
+      <c r="EC3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED3" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ3" s="0" t="n">
+      <c r="EE3" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC3" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED3" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF3" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="0" t="n">
+      <c r="EH3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI3" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="0" t="s">
-        <v>155</v>
+      <c r="EQ3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU3" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -1867,7 +1934,7 @@
         <v>hzb_TestP_AA_1_c-2</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.16</v>
@@ -1879,22 +1946,22 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>100</v>
@@ -1903,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>10</v>
@@ -1912,7 +1979,7 @@
         <v>100</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>20</v>
@@ -1921,17 +1988,17 @@
         <v>50</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB4" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC4" s="0" t="n">
         <v>1</v>
       </c>
@@ -1939,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>2</v>
@@ -1972,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>10</v>
@@ -1993,40 +2060,40 @@
         <v>100</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI4" s="0" t="n">
         <v>10</v>
@@ -2035,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM4" s="0" t="n">
         <v>5</v>
@@ -2068,19 +2135,19 @@
         <v>14</v>
       </c>
       <c r="BV4" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX4" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA4" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB4" s="0" t="n">
         <v>10</v>
@@ -2119,165 +2186,180 @@
         <v>3</v>
       </c>
       <c r="CN4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR4" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR4" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT4" s="0" t="s">
+      <c r="CX4" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY4" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ4" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU4" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW4" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX4" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ4" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO4" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ4" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV4" s="0" t="n">
+      <c r="DS4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA4" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW4" s="0" t="n">
+      <c r="EB4" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY4" s="0" t="n">
+      <c r="EC4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED4" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ4" s="0" t="n">
+      <c r="EE4" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC4" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK4" s="0" t="n">
+      <c r="EH4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP4" s="0" t="s">
-        <v>155</v>
+      <c r="EQ4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU4" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -2290,7 +2372,7 @@
         <v>hzb_TestP_AA_1_c-3</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.16</v>
@@ -2302,22 +2384,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>100</v>
@@ -2326,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>10</v>
@@ -2335,7 +2417,7 @@
         <v>100</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>20</v>
@@ -2344,17 +2426,17 @@
         <v>50</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC5" s="0" t="n">
         <v>1</v>
       </c>
@@ -2362,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2</v>
@@ -2395,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>10</v>
@@ -2416,40 +2498,40 @@
         <v>100</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI5" s="0" t="n">
         <v>10</v>
@@ -2458,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL5" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM5" s="0" t="n">
         <v>5</v>
@@ -2491,19 +2573,19 @@
         <v>14</v>
       </c>
       <c r="BV5" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX5" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ5" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB5" s="0" t="n">
         <v>10</v>
@@ -2542,165 +2624,180 @@
         <v>3</v>
       </c>
       <c r="CN5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR5" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR5" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT5" s="0" t="s">
+      <c r="CX5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY5" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD5" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ5" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU5" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV5" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW5" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX5" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ5" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL5" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO5" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP5" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ5" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV5" s="0" t="n">
+      <c r="DS5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT5" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV5" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA5" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW5" s="0" t="n">
+      <c r="EB5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY5" s="0" t="n">
+      <c r="EC5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED5" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ5" s="0" t="n">
+      <c r="EE5" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC5" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED5" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE5" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF5" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK5" s="0" t="n">
+      <c r="EH5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP5" s="0" t="s">
-        <v>155</v>
+      <c r="EQ5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -2713,7 +2810,7 @@
         <v>hzb_TestP_AA_1_c-4</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.16</v>
@@ -2725,22 +2822,22 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>100</v>
@@ -2749,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>10</v>
@@ -2758,7 +2855,7 @@
         <v>100</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -2767,17 +2864,17 @@
         <v>50</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB6" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC6" s="0" t="n">
         <v>1</v>
       </c>
@@ -2785,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>2</v>
@@ -2818,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ6" s="0" t="n">
         <v>10</v>
@@ -2839,40 +2936,40 @@
         <v>100</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI6" s="0" t="n">
         <v>10</v>
@@ -2881,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM6" s="0" t="n">
         <v>5</v>
@@ -2914,19 +3011,19 @@
         <v>14</v>
       </c>
       <c r="BV6" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX6" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB6" s="0" t="n">
         <v>10</v>
@@ -2965,165 +3062,180 @@
         <v>3</v>
       </c>
       <c r="CN6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR6" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR6" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT6" s="0" t="s">
+      <c r="CX6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA6" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ6" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU6" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW6" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ6" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL6" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO6" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP6" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ6" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV6" s="0" t="n">
+      <c r="DS6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV6" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA6" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW6" s="0" t="n">
+      <c r="EB6" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY6" s="0" t="n">
+      <c r="EC6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED6" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ6" s="0" t="n">
+      <c r="EE6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC6" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED6" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE6" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF6" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK6" s="0" t="n">
+      <c r="EH6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP6" s="0" t="s">
-        <v>155</v>
+      <c r="EQ6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -3136,7 +3248,7 @@
         <v>hzb_TestP_AA_1_c-5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.16</v>
@@ -3148,22 +3260,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>100</v>
@@ -3172,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>10</v>
@@ -3181,7 +3293,7 @@
         <v>100</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -3190,17 +3302,17 @@
         <v>50</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB7" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC7" s="0" t="n">
         <v>1</v>
       </c>
@@ -3208,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>2</v>
@@ -3241,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>10</v>
@@ -3262,40 +3374,40 @@
         <v>100</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA7" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI7" s="0" t="n">
         <v>10</v>
@@ -3304,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM7" s="0" t="n">
         <v>5</v>
@@ -3337,19 +3449,19 @@
         <v>14</v>
       </c>
       <c r="BV7" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX7" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ7" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA7" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB7" s="0" t="n">
         <v>10</v>
@@ -3388,165 +3500,180 @@
         <v>3</v>
       </c>
       <c r="CN7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR7" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR7" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT7" s="0" t="s">
+      <c r="CX7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ7" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU7" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV7" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW7" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX7" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ7" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO7" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP7" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ7" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV7" s="0" t="n">
+      <c r="DS7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT7" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV7" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA7" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW7" s="0" t="n">
+      <c r="EB7" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY7" s="0" t="n">
+      <c r="EC7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED7" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ7" s="0" t="n">
+      <c r="EE7" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC7" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED7" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE7" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK7" s="0" t="n">
+      <c r="EH7" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP7" s="0" t="s">
-        <v>155</v>
+      <c r="EQ7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU7" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -3559,7 +3686,7 @@
         <v>hzb_TestP_AA_1_c-6</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.16</v>
@@ -3571,22 +3698,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>100</v>
@@ -3595,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>10</v>
@@ -3604,7 +3731,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -3613,17 +3740,17 @@
         <v>50</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB8" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
       </c>
@@ -3631,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>2</v>
@@ -3664,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ8" s="0" t="n">
         <v>10</v>
@@ -3685,40 +3812,40 @@
         <v>100</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD8" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH8" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI8" s="0" t="n">
         <v>10</v>
@@ -3727,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="BK8" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM8" s="0" t="n">
         <v>5</v>
@@ -3760,19 +3887,19 @@
         <v>14</v>
       </c>
       <c r="BV8" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX8" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ8" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA8" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB8" s="0" t="n">
         <v>10</v>
@@ -3811,165 +3938,180 @@
         <v>3</v>
       </c>
       <c r="CN8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR8" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR8" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT8" s="0" t="s">
+      <c r="CX8" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ8" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW8" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX8" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ8" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL8" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO8" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP8" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ8" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV8" s="0" t="n">
+      <c r="DS8" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA8" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW8" s="0" t="n">
+      <c r="EB8" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY8" s="0" t="n">
+      <c r="EC8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED8" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ8" s="0" t="n">
+      <c r="EE8" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC8" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE8" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF8" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK8" s="0" t="n">
+      <c r="EH8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI8" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP8" s="0" t="s">
-        <v>155</v>
+      <c r="EQ8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU8" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -3982,7 +4124,7 @@
         <v>hzb_TestP_AA_1_c-7</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.16</v>
@@ -3994,22 +4136,22 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>100</v>
@@ -4018,7 +4160,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>10</v>
@@ -4027,7 +4169,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
@@ -4036,17 +4178,17 @@
         <v>50</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB9" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB9" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC9" s="0" t="n">
         <v>1</v>
       </c>
@@ -4054,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>2</v>
@@ -4087,7 +4229,7 @@
         <v>10</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>10</v>
@@ -4108,40 +4250,40 @@
         <v>100</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH9" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI9" s="0" t="n">
         <v>10</v>
@@ -4150,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL9" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM9" s="0" t="n">
         <v>5</v>
@@ -4183,19 +4325,19 @@
         <v>14</v>
       </c>
       <c r="BV9" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX9" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ9" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB9" s="0" t="n">
         <v>10</v>
@@ -4234,165 +4376,180 @@
         <v>3</v>
       </c>
       <c r="CN9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR9" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR9" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT9" s="0" t="s">
+      <c r="CX9" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU9" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV9" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW9" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX9" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL9" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO9" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP9" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ9" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV9" s="0" t="n">
+      <c r="DS9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA9" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW9" s="0" t="n">
+      <c r="EB9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY9" s="0" t="n">
+      <c r="EC9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED9" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ9" s="0" t="n">
+      <c r="EE9" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC9" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED9" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE9" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF9" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK9" s="0" t="n">
+      <c r="EH9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI9" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP9" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP9" s="0" t="s">
-        <v>155</v>
+      <c r="EQ9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU9" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4405,7 +4562,7 @@
         <v>hzb_TestP_AA_1_c-8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.16</v>
@@ -4417,22 +4574,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>100</v>
@@ -4441,7 +4598,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>10</v>
@@ -4450,7 +4607,7 @@
         <v>100</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -4459,17 +4616,17 @@
         <v>50</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB10" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC10" s="0" t="n">
         <v>1</v>
       </c>
@@ -4477,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>2</v>
@@ -4510,7 +4667,7 @@
         <v>10</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ10" s="0" t="n">
         <v>10</v>
@@ -4531,40 +4688,40 @@
         <v>100</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI10" s="0" t="n">
         <v>10</v>
@@ -4573,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL10" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM10" s="0" t="n">
         <v>5</v>
@@ -4606,19 +4763,19 @@
         <v>14</v>
       </c>
       <c r="BV10" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX10" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY10" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ10" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB10" s="0" t="n">
         <v>10</v>
@@ -4657,165 +4814,180 @@
         <v>3</v>
       </c>
       <c r="CN10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR10" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR10" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT10" s="0" t="s">
+      <c r="CX10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY10" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ10" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU10" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV10" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW10" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX10" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ10" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO10" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP10" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ10" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV10" s="0" t="n">
+      <c r="DS10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT10" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA10" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW10" s="0" t="n">
+      <c r="EB10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY10" s="0" t="n">
+      <c r="EC10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED10" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ10" s="0" t="n">
+      <c r="EE10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE10" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK10" s="0" t="n">
+      <c r="EH10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP10" s="0" t="s">
-        <v>155</v>
+      <c r="EQ10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU10" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4828,7 +5000,7 @@
         <v>hzb_TestP_AA_2_c-1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.16</v>
@@ -4840,22 +5012,22 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>100</v>
@@ -4864,7 +5036,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>10</v>
@@ -4873,7 +5045,7 @@
         <v>100</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
@@ -4882,17 +5054,17 @@
         <v>50</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB11" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB11" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC11" s="0" t="n">
         <v>1</v>
       </c>
@@ -4900,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>2</v>
@@ -4933,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ11" s="0" t="n">
         <v>10</v>
@@ -4954,40 +5126,40 @@
         <v>100</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD11" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH11" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI11" s="0" t="n">
         <v>10</v>
@@ -4996,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL11" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM11" s="0" t="n">
         <v>5</v>
@@ -5029,19 +5201,19 @@
         <v>14</v>
       </c>
       <c r="BV11" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX11" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY11" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ11" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA11" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB11" s="0" t="n">
         <v>10</v>
@@ -5080,165 +5252,180 @@
         <v>3</v>
       </c>
       <c r="CN11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR11" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR11" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT11" s="0" t="s">
+      <c r="CX11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY11" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB11" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD11" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI11" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ11" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU11" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV11" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW11" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX11" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ11" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL11" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO11" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP11" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ11" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV11" s="0" t="n">
+      <c r="DS11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT11" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU11" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA11" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW11" s="0" t="n">
+      <c r="EB11" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY11" s="0" t="n">
+      <c r="EC11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED11" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ11" s="0" t="n">
+      <c r="EE11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC11" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED11" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE11" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF11" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK11" s="0" t="n">
+      <c r="EH11" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ11" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP11" s="0" t="s">
-        <v>155</v>
+      <c r="EQ11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -5251,7 +5438,7 @@
         <v>hzb_TestP_AA_2_c-2</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.16</v>
@@ -5263,22 +5450,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>100</v>
@@ -5287,7 +5474,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>10</v>
@@ -5296,7 +5483,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
@@ -5305,17 +5492,17 @@
         <v>50</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB12" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB12" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC12" s="0" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>2</v>
@@ -5356,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ12" s="0" t="n">
         <v>10</v>
@@ -5377,40 +5564,40 @@
         <v>100</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH12" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI12" s="0" t="n">
         <v>10</v>
@@ -5419,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="BK12" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL12" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM12" s="0" t="n">
         <v>5</v>
@@ -5452,19 +5639,19 @@
         <v>14</v>
       </c>
       <c r="BV12" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX12" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY12" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ12" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA12" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB12" s="0" t="n">
         <v>10</v>
@@ -5503,165 +5690,180 @@
         <v>3</v>
       </c>
       <c r="CN12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ12" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR12" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR12" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT12" s="0" t="s">
+      <c r="CX12" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY12" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD12" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ12" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU12" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV12" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW12" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ12" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO12" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP12" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ12" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV12" s="0" t="n">
+      <c r="DS12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU12" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA12" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW12" s="0" t="n">
+      <c r="EB12" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY12" s="0" t="n">
+      <c r="EC12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED12" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ12" s="0" t="n">
+      <c r="EE12" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC12" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE12" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK12" s="0" t="n">
+      <c r="EH12" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ12" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP12" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP12" s="0" t="s">
-        <v>155</v>
+      <c r="EQ12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU12" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -5674,7 +5876,7 @@
         <v>hzb_TestP_AA_2_c-3</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.16</v>
@@ -5686,22 +5888,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>100</v>
@@ -5710,7 +5912,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>10</v>
@@ -5719,7 +5921,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>20</v>
@@ -5728,17 +5930,17 @@
         <v>50</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB13" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC13" s="0" t="n">
         <v>1</v>
       </c>
@@ -5746,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>2</v>
@@ -5779,7 +5981,7 @@
         <v>10</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>10</v>
@@ -5800,40 +6002,40 @@
         <v>100</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH13" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI13" s="0" t="n">
         <v>10</v>
@@ -5842,10 +6044,10 @@
         <v>1</v>
       </c>
       <c r="BK13" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL13" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM13" s="0" t="n">
         <v>5</v>
@@ -5875,19 +6077,19 @@
         <v>14</v>
       </c>
       <c r="BV13" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX13" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY13" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ13" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA13" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB13" s="0" t="n">
         <v>10</v>
@@ -5926,165 +6128,180 @@
         <v>3</v>
       </c>
       <c r="CN13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR13" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR13" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT13" s="0" t="s">
+      <c r="CX13" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY13" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA13" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD13" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI13" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ13" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU13" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV13" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW13" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX13" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ13" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL13" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN13" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO13" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP13" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ13" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV13" s="0" t="n">
+      <c r="DS13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT13" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA13" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW13" s="0" t="n">
+      <c r="EB13" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY13" s="0" t="n">
+      <c r="EC13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED13" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ13" s="0" t="n">
+      <c r="EE13" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC13" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED13" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE13" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF13" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK13" s="0" t="n">
+      <c r="EH13" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP13" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP13" s="0" t="s">
-        <v>155</v>
+      <c r="EQ13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU13" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -6097,7 +6314,7 @@
         <v>hzb_TestP_AA_2_c-4</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.16</v>
@@ -6109,22 +6326,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>100</v>
@@ -6133,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>10</v>
@@ -6142,7 +6359,7 @@
         <v>100</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>20</v>
@@ -6151,17 +6368,17 @@
         <v>50</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB14" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC14" s="0" t="n">
         <v>1</v>
       </c>
@@ -6169,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>2</v>
@@ -6202,7 +6419,7 @@
         <v>10</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ14" s="0" t="n">
         <v>10</v>
@@ -6223,40 +6440,40 @@
         <v>100</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD14" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH14" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI14" s="0" t="n">
         <v>10</v>
@@ -6265,10 +6482,10 @@
         <v>1</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL14" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM14" s="0" t="n">
         <v>5</v>
@@ -6298,19 +6515,19 @@
         <v>14</v>
       </c>
       <c r="BV14" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX14" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ14" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA14" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB14" s="0" t="n">
         <v>10</v>
@@ -6349,165 +6566,180 @@
         <v>3</v>
       </c>
       <c r="CN14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ14" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR14" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR14" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT14" s="0" t="s">
+      <c r="CX14" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA14" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ14" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU14" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV14" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW14" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX14" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ14" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL14" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN14" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO14" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP14" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ14" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV14" s="0" t="n">
+      <c r="DS14" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT14" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA14" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW14" s="0" t="n">
+      <c r="EB14" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY14" s="0" t="n">
+      <c r="EC14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED14" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ14" s="0" t="n">
+      <c r="EE14" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC14" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED14" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE14" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF14" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK14" s="0" t="n">
+      <c r="EH14" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK14" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP14" s="0" t="s">
-        <v>155</v>
+      <c r="EQ14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU14" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -6520,7 +6752,7 @@
         <v>hzb_TestP_AA_2_c-5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.16</v>
@@ -6532,22 +6764,22 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>100</v>
@@ -6556,7 +6788,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>10</v>
@@ -6565,7 +6797,7 @@
         <v>100</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>20</v>
@@ -6574,17 +6806,17 @@
         <v>50</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB15" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC15" s="0" t="n">
         <v>1</v>
       </c>
@@ -6592,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>2</v>
@@ -6625,7 +6857,7 @@
         <v>10</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ15" s="0" t="n">
         <v>10</v>
@@ -6646,40 +6878,40 @@
         <v>100</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH15" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI15" s="0" t="n">
         <v>10</v>
@@ -6688,10 +6920,10 @@
         <v>1</v>
       </c>
       <c r="BK15" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM15" s="0" t="n">
         <v>5</v>
@@ -6721,19 +6953,19 @@
         <v>14</v>
       </c>
       <c r="BV15" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX15" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY15" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ15" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA15" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB15" s="0" t="n">
         <v>10</v>
@@ -6772,165 +7004,180 @@
         <v>3</v>
       </c>
       <c r="CN15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ15" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR15" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR15" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT15" s="0" t="s">
+      <c r="CX15" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY15" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB15" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD15" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ15" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU15" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV15" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW15" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX15" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ15" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL15" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN15" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO15" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP15" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ15" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV15" s="0" t="n">
+      <c r="DS15" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT15" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU15" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA15" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW15" s="0" t="n">
+      <c r="EB15" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY15" s="0" t="n">
+      <c r="EC15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED15" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ15" s="0" t="n">
+      <c r="EE15" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC15" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED15" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE15" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF15" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK15" s="0" t="n">
+      <c r="EH15" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI15" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ15" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP15" s="0" t="s">
-        <v>155</v>
+      <c r="EQ15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU15" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -6943,7 +7190,7 @@
         <v>hzb_TestP_AA_2_c-6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.16</v>
@@ -6955,22 +7202,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>100</v>
@@ -6979,7 +7226,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>10</v>
@@ -6988,7 +7235,7 @@
         <v>100</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -6997,17 +7244,17 @@
         <v>50</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB16" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB16" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC16" s="0" t="n">
         <v>1</v>
       </c>
@@ -7015,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>2</v>
@@ -7048,7 +7295,7 @@
         <v>10</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ16" s="0" t="n">
         <v>10</v>
@@ -7069,40 +7316,40 @@
         <v>100</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH16" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI16" s="0" t="n">
         <v>10</v>
@@ -7111,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM16" s="0" t="n">
         <v>5</v>
@@ -7144,19 +7391,19 @@
         <v>14</v>
       </c>
       <c r="BV16" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX16" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY16" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ16" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA16" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB16" s="0" t="n">
         <v>10</v>
@@ -7195,165 +7442,180 @@
         <v>3</v>
       </c>
       <c r="CN16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ16" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR16" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR16" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT16" s="0" t="s">
+      <c r="CX16" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY16" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA16" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD16" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU16" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV16" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW16" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX16" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ16" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL16" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN16" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO16" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP16" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ16" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV16" s="0" t="n">
+      <c r="DS16" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU16" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA16" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW16" s="0" t="n">
+      <c r="EB16" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY16" s="0" t="n">
+      <c r="EC16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED16" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ16" s="0" t="n">
+      <c r="EE16" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC16" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED16" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE16" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF16" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK16" s="0" t="n">
+      <c r="EH16" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ16" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP16" s="0" t="s">
-        <v>155</v>
+      <c r="EQ16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU16" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -7366,7 +7628,7 @@
         <v>hzb_TestP_AA_2_c-7</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.16</v>
@@ -7378,22 +7640,22 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>100</v>
@@ -7402,7 +7664,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>10</v>
@@ -7411,7 +7673,7 @@
         <v>100</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>20</v>
@@ -7420,17 +7682,17 @@
         <v>50</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB17" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB17" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC17" s="0" t="n">
         <v>1</v>
       </c>
@@ -7438,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>2</v>
@@ -7471,7 +7733,7 @@
         <v>10</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ17" s="0" t="n">
         <v>10</v>
@@ -7492,40 +7754,40 @@
         <v>100</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH17" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI17" s="0" t="n">
         <v>10</v>
@@ -7534,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM17" s="0" t="n">
         <v>5</v>
@@ -7567,19 +7829,19 @@
         <v>14</v>
       </c>
       <c r="BV17" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX17" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY17" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ17" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA17" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB17" s="0" t="n">
         <v>10</v>
@@ -7618,165 +7880,180 @@
         <v>3</v>
       </c>
       <c r="CN17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR17" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR17" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT17" s="0" t="s">
+      <c r="CX17" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY17" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA17" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD17" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI17" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ17" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU17" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV17" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW17" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ17" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL17" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN17" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO17" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP17" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ17" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV17" s="0" t="n">
+      <c r="DS17" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT17" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU17" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA17" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW17" s="0" t="n">
+      <c r="EB17" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY17" s="0" t="n">
+      <c r="EC17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED17" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ17" s="0" t="n">
+      <c r="EE17" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC17" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED17" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE17" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF17" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK17" s="0" t="n">
+      <c r="EH17" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI17" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ17" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP17" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP17" s="0" t="s">
-        <v>155</v>
+      <c r="EQ17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU17" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -7789,7 +8066,7 @@
         <v>hzb_TestP_AA_2_c-8</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.16</v>
@@ -7801,22 +8078,22 @@
         <v>1</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>100</v>
@@ -7825,7 +8102,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>10</v>
@@ -7834,7 +8111,7 @@
         <v>100</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>20</v>
@@ -7843,17 +8120,17 @@
         <v>50</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB18" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AB18" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="AC18" s="0" t="n">
         <v>1</v>
       </c>
@@ -7861,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>2</v>
@@ -7894,7 +8171,7 @@
         <v>10</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ18" s="0" t="n">
         <v>10</v>
@@ -7915,40 +8192,40 @@
         <v>100</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BA18" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="BD18" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BH18" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BI18" s="0" t="n">
         <v>10</v>
@@ -7957,10 +8234,10 @@
         <v>1</v>
       </c>
       <c r="BK18" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BL18" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BM18" s="0" t="n">
         <v>5</v>
@@ -7990,19 +8267,19 @@
         <v>14</v>
       </c>
       <c r="BV18" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BX18" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BZ18" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CA18" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="CB18" s="0" t="n">
         <v>10</v>
@@ -8041,161 +8318,176 @@
         <v>3</v>
       </c>
       <c r="CN18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CR18" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="CO18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="CR18" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="CS18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="CT18" s="0" t="s">
+      <c r="CX18" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY18" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD18" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DG18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="DO18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="DQ18" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="CU18" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="CV18" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="CW18" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX18" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ18" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DC18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DD18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="DE18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DI18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="DJ18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="DL18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="DN18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO18" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP18" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="DQ18" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="DU18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="DV18" s="0" t="n">
+      <c r="DS18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT18" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU18" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV18" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="DW18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EA18" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="DW18" s="0" t="n">
+      <c r="EB18" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="DX18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="DY18" s="0" t="n">
+      <c r="EC18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED18" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="DZ18" s="0" t="n">
+      <c r="EE18" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="EC18" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="ED18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE18" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="EF18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EH18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK18" s="0" t="n">
+      <c r="EH18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ18" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="EM18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP18" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="EL18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="EM18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="EN18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP18" s="0" t="s">
-        <v>155</v>
+      <c r="EQ18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="ER18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU18" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE31" s="3"/>
+      <c r="AE31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8204,11 +8496,11 @@
     <mergeCell ref="Y1:AX1"/>
     <mergeCell ref="AY1:BW1"/>
     <mergeCell ref="BX1:CM1"/>
-    <mergeCell ref="CN1:CT1"/>
-    <mergeCell ref="CU1:DM1"/>
-    <mergeCell ref="DN1:EB1"/>
-    <mergeCell ref="EC1:EO1"/>
-    <mergeCell ref="EP1:EQ1"/>
+    <mergeCell ref="CN1:CX1"/>
+    <mergeCell ref="CY1:DR1"/>
+    <mergeCell ref="DS1:EG1"/>
+    <mergeCell ref="EH1:ET1"/>
+    <mergeCell ref="EU1:EV1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
